--- a/Peaks-dataset-article/fixed_results.xlsx
+++ b/Peaks-dataset-article/fixed_results.xlsx
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9974994020737059</v>
+        <v>0.9974993991818419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.787661299233386</v>
+        <v>0.7876613056669853</v>
       </c>
       <c r="E2" t="n">
         <v>0.999698423285646</v>
@@ -552,13 +552,13 @@
         <v>0.9845775309386978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9964793075850636</v>
+        <v>0.9964792994337215</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01049447456241024</v>
+        <v>0.01049448669894486</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8911401030844537</v>
+        <v>0.8911400760840136</v>
       </c>
       <c r="J2" t="n">
         <v>0.003001618048681997</v>
@@ -567,25 +567,25 @@
         <v>0.04154340237868485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02227245904183635</v>
+        <v>0.02227251060852051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1170344426876959</v>
+        <v>0.1170350212951132</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1024425427369423</v>
+        <v>0.1024426019727382</v>
       </c>
       <c r="O2" t="n">
-        <v>1.001818616673668</v>
+        <v>1.001818618776842</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1068037338665518</v>
+        <v>0.1068037956241382</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.1138127849576</v>
+        <v>123.1138104720209</v>
       </c>
       <c r="R2" t="n">
-        <v>192.589734802445</v>
+        <v>192.5897324895083</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9973293448541923</v>
+        <v>0.997329341707106</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7826843990487019</v>
+        <v>0.7826844076645902</v>
       </c>
       <c r="E3" t="n">
         <v>0.9992186093006387</v>
@@ -615,13 +615,13 @@
         <v>0.9788356700121651</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9948793908903988</v>
+        <v>0.9948793884411701</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01120816833363741</v>
+        <v>0.0112081815412856</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9120270884884716</v>
+        <v>0.9120270523294314</v>
       </c>
       <c r="J3" t="n">
         <v>0.007777246433958597</v>
@@ -630,25 +630,25 @@
         <v>0.05701021498341392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03239378600044721</v>
+        <v>0.0323938014946565</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1065289397041036</v>
+        <v>0.1065296281136851</v>
       </c>
       <c r="N3" t="n">
-        <v>0.105868637157741</v>
+        <v>0.1058686995352526</v>
       </c>
       <c r="O3" t="n">
-        <v>1.001942294651496</v>
+        <v>1.001942296940286</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1103756842198371</v>
+        <v>0.1103757492528885</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.9822249019981</v>
+        <v>122.9822225452098</v>
       </c>
       <c r="R3" t="n">
-        <v>192.4581469194856</v>
+        <v>192.4581445626972</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9965374078622785</v>
+        <v>0.996537401993916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7772133709940998</v>
+        <v>0.7772133690033168</v>
       </c>
       <c r="E4" t="n">
         <v>0.9967868774627651</v>
@@ -678,13 +678,13 @@
         <v>0.9988364863121262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.998279881850066</v>
+        <v>0.998279868699165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01453175847553115</v>
+        <v>0.01453178310379306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9349878228574494</v>
+        <v>0.9349878312123396</v>
       </c>
       <c r="J4" t="n">
         <v>0.008674747084374813</v>
@@ -693,25 +693,25 @@
         <v>0.00511001623910918</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006892381661370555</v>
+        <v>0.006892434356023456</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09245131242564175</v>
+        <v>0.09245108853649089</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1205477435522173</v>
+        <v>0.1205478457036585</v>
       </c>
       <c r="O4" t="n">
-        <v>1.002518248827434</v>
+        <v>1.002518253095334</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1256797105634655</v>
+        <v>0.125679817063705</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.4628375698844</v>
+        <v>122.4628341803096</v>
       </c>
       <c r="R4" t="n">
-        <v>191.9387595873718</v>
+        <v>191.938756197797</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9965356677530511</v>
+        <v>0.9965356772848427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7772112740266997</v>
+        <v>0.7772112665120303</v>
       </c>
       <c r="E5" t="n">
         <v>0.9968026000389545</v>
@@ -741,13 +741,13 @@
         <v>0.9988362451690449</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9982850464779914</v>
+        <v>0.9982850464780078</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01453906134170985</v>
+        <v>0.01453902133881993</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9349966233810391</v>
+        <v>0.9349966549184986</v>
       </c>
       <c r="J5" t="n">
         <v>0.008632299474494298</v>
@@ -756,25 +756,25 @@
         <v>0.005111075311360633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006871687392896911</v>
+        <v>0.006871687392831392</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09213708203279378</v>
+        <v>0.09213702921082323</v>
       </c>
       <c r="N5" t="n">
-        <v>0.120578030095494</v>
+        <v>0.1205778642157006</v>
       </c>
       <c r="O5" t="n">
-        <v>1.002519514361417</v>
+        <v>1.002519507429205</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1257112864675912</v>
+        <v>0.1257111135259517</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.4618327318539</v>
+        <v>122.4618382346775</v>
       </c>
       <c r="R5" t="n">
-        <v>191.9377547493413</v>
+        <v>191.937760252165</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9960872960218368</v>
+        <v>0.9960873015685504</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7962299616123006</v>
+        <v>0.7962299577640957</v>
       </c>
       <c r="E6" t="n">
         <v>0.9999999991722165</v>
@@ -804,13 +804,13 @@
         <v>0.9931215337685871</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9985355657551247</v>
+        <v>0.9985355657287485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0164207815807998</v>
+        <v>0.01642075830242881</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8551792601101218</v>
+        <v>0.8551792762602148</v>
       </c>
       <c r="J6" t="n">
         <v>8.23899836285e-09</v>
@@ -819,25 +819,25 @@
         <v>0.01852847875809908</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009264243476673577</v>
+        <v>0.009264243643533551</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1283785290944225</v>
+        <v>0.128378777853142</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1281435975021765</v>
+        <v>0.1281435066729048</v>
       </c>
       <c r="O6" t="n">
-        <v>1.00284560289321</v>
+        <v>1.002845598859236</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1335989357416598</v>
+        <v>0.133598841045598</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.2184151535455</v>
+        <v>122.2184179887806</v>
       </c>
       <c r="R6" t="n">
-        <v>191.694337171033</v>
+        <v>191.694340006268</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9960855966108859</v>
+        <v>0.9960855888094911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7962347480766543</v>
+        <v>0.7962347585836029</v>
       </c>
       <c r="E7" t="n">
         <v>0.9999999999999561</v>
@@ -867,13 +867,13 @@
         <v>0.9931302201904422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9985374157229889</v>
+        <v>0.9985374157229677</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01642791364501799</v>
+        <v>0.01642794638580322</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8551591723431619</v>
+        <v>0.8551591282477462</v>
       </c>
       <c r="J7" t="n">
         <v>4.359283944553573e-13</v>
@@ -882,25 +882,25 @@
         <v>0.01850508020129735</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009252540286326685</v>
+        <v>0.009252540286460819</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1281544113178701</v>
+        <v>0.1281542644096251</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1281714228875453</v>
+        <v>0.1281715506101226</v>
       </c>
       <c r="O7" t="n">
-        <v>1.002846838828447</v>
+        <v>1.002846844502188</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1336279457112903</v>
+        <v>0.1336280788712821</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.2175466789494</v>
+        <v>122.217542692959</v>
       </c>
       <c r="R7" t="n">
-        <v>191.6934686964368</v>
+        <v>191.6934647104464</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9950023516876826</v>
+        <v>0.9950023452980551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7833714969000127</v>
+        <v>0.783371500419151</v>
       </c>
       <c r="E8" t="n">
         <v>0.9714051638279407</v>
@@ -930,13 +930,13 @@
         <v>0.9924986275263744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9933918288705329</v>
+        <v>0.9933918321715027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02097406085720299</v>
+        <v>0.0209740876731027</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9091434857922341</v>
+        <v>0.9091434710231633</v>
       </c>
       <c r="J8" t="n">
         <v>0.008660339917982072</v>
@@ -945,25 +945,25 @@
         <v>0.05749874480576561</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03307949576699459</v>
+        <v>0.03307947924284329</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3471848089960456</v>
+        <v>0.3471848186843585</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1448242412623073</v>
+        <v>0.1448243338431173</v>
       </c>
       <c r="O8" t="n">
-        <v>1.004135984810194</v>
+        <v>1.004135990098161</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1509897090403522</v>
+        <v>0.150989805562519</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.7289376040394</v>
+        <v>113.7289350469873</v>
       </c>
       <c r="R8" t="n">
-        <v>178.329356322054</v>
+        <v>178.3293537650019</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9946467391617198</v>
+        <v>0.9946467327334449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7842076987871953</v>
+        <v>0.7842077021735858</v>
       </c>
       <c r="E9" t="n">
         <v>0.9739949998515186</v>
@@ -993,13 +993,13 @@
         <v>0.9931697362869296</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9939839616785222</v>
+        <v>0.9939839596749426</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02246649055513626</v>
+        <v>0.02246651753323056</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9056341253541556</v>
+        <v>0.905634111142199</v>
       </c>
       <c r="J9" t="n">
         <v>0.007875972413266808</v>
@@ -1008,25 +1008,25 @@
         <v>0.05235463131243499</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03011536933448759</v>
+        <v>0.03011537936410168</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3702343670367704</v>
+        <v>0.3702347166560101</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1498882602312011</v>
+        <v>0.1498883502251945</v>
       </c>
       <c r="O9" t="n">
-        <v>1.00443028483168</v>
+        <v>1.004430290151632</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1562693137807162</v>
+        <v>0.1562694076059402</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.5914607771097</v>
+        <v>113.5914583754816</v>
       </c>
       <c r="R9" t="n">
-        <v>178.1918794951243</v>
+        <v>178.1918770934962</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9941654837736642</v>
+        <v>0.9941654855285601</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7850600888978628</v>
+        <v>0.7850600873202108</v>
       </c>
       <c r="E10" t="n">
         <v>0.9767287074329383</v>
@@ -1056,13 +1056,13 @@
         <v>0.9938733974177043</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9946053963651396</v>
+        <v>0.9946054044125305</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0244862164674332</v>
+        <v>0.02448620910251044</v>
       </c>
       <c r="I10" t="n">
-        <v>0.902056826405137</v>
+        <v>0.902056833026205</v>
       </c>
       <c r="J10" t="n">
         <v>0.007048031425984929</v>
@@ -1071,25 +1071,25 @@
         <v>0.04696100075610589</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02700456217125366</v>
+        <v>0.02700452188724316</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3958435172375815</v>
+        <v>0.3958433171280645</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1564807223508161</v>
+        <v>0.1564806988178109</v>
       </c>
       <c r="O10" t="n">
-        <v>1.00482856515283</v>
+        <v>1.004828563700502</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1631424306610411</v>
+        <v>0.1631424061261872</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.4192898258247</v>
+        <v>113.4192904273814</v>
       </c>
       <c r="R10" t="n">
-        <v>178.0197085438394</v>
+        <v>178.0197091453961</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9935244477459526</v>
+        <v>0.9935244550257907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7859124507391042</v>
+        <v>0.7859124564222647</v>
       </c>
       <c r="E11" t="n">
         <v>0.9795881692985932</v>
@@ -1119,13 +1119,13 @@
         <v>0.9946038456216659</v>
       </c>
       <c r="G11" t="n">
-        <v>0.995251170000772</v>
+        <v>0.9952511782811212</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02717650754368706</v>
+        <v>0.0271764769917637</v>
       </c>
       <c r="I11" t="n">
-        <v>0.898479646096852</v>
+        <v>0.8984796222458433</v>
       </c>
       <c r="J11" t="n">
         <v>0.006182004021943498</v>
@@ -1134,25 +1134,25 @@
         <v>0.0413620446955868</v>
       </c>
       <c r="L11" t="n">
-        <v>0.023771917945216</v>
+        <v>0.02377187649505243</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4243055702615265</v>
+        <v>0.4243055904927815</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1648529876698844</v>
+        <v>0.1648528950057102</v>
       </c>
       <c r="O11" t="n">
-        <v>1.005359077727487</v>
+        <v>1.005359071702794</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1718711206477206</v>
+        <v>0.1718710240386406</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.2108047442498</v>
+        <v>113.210806992658</v>
       </c>
       <c r="R11" t="n">
-        <v>177.8112234622644</v>
+        <v>177.8112257106726</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1170,52 +1170,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9930715467947264</v>
+        <v>0.9930715419717678</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7896278974237608</v>
+        <v>0.7896278917939206</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9910723269187465</v>
+        <v>0.9910723290248151</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9868275047443215</v>
+        <v>0.9868274667328919</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9919081368518103</v>
+        <v>0.9919081248452621</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02907723595026407</v>
+        <v>0.02907725619118927</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8828867111791194</v>
+        <v>0.8828867348063547</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03648188004982929</v>
+        <v>0.03648187144362874</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0447520654039044</v>
+        <v>0.04475219454344437</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04061697272686686</v>
+        <v>0.04061703299353656</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4651245715398066</v>
+        <v>0.465123306068125</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1705204854270127</v>
+        <v>0.1705205447774234</v>
       </c>
       <c r="O12" t="n">
-        <v>1.004055679925038</v>
+        <v>1.004055682748233</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1777798955177076</v>
+        <v>0.1777799573947881</v>
       </c>
       <c r="Q12" t="n">
-        <v>137.0755993613754</v>
+        <v>137.0755979691579</v>
       </c>
       <c r="R12" t="n">
-        <v>216.3025279778085</v>
+        <v>216.302526585591</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9926809662103333</v>
+        <v>0.9926809556931964</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7867423490565129</v>
+        <v>0.7867423490508562</v>
       </c>
       <c r="E13" t="n">
         <v>0.9825460717683394</v>
@@ -1245,13 +1245,13 @@
         <v>0.9953528056731771</v>
       </c>
       <c r="G13" t="n">
-        <v>0.995914040308707</v>
+        <v>0.9959140452942216</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03071641910897331</v>
+        <v>0.03071646324714737</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8949967403926392</v>
+        <v>0.8949967404163794</v>
       </c>
       <c r="J13" t="n">
         <v>0.005286162525314411</v>
@@ -1260,25 +1260,25 @@
         <v>0.03562119353495379</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02045369038787814</v>
+        <v>0.0204536654311534</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4559443148552438</v>
+        <v>0.455944955426517</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1752610028185772</v>
+        <v>0.1752611287397961</v>
       </c>
       <c r="O13" t="n">
-        <v>1.006057131412138</v>
+        <v>1.006057140115975</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1827222265488547</v>
+        <v>0.1827223578308006</v>
       </c>
       <c r="Q13" t="n">
-        <v>112.9659158859201</v>
+        <v>112.9659130120081</v>
       </c>
       <c r="R13" t="n">
-        <v>177.5663346039347</v>
+        <v>177.5663317300228</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9866826703625732</v>
+        <v>0.9866826786167802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7943005189238346</v>
+        <v>0.7943005216340476</v>
       </c>
       <c r="E15" t="n">
         <v>0.9892980783124798</v>
@@ -1371,13 +1371,13 @@
         <v>0.9780748973886413</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9865093950785158</v>
+        <v>0.9865094036474006</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05588998361137255</v>
+        <v>0.0558899489702315</v>
       </c>
       <c r="I15" t="n">
-        <v>0.863276718322344</v>
+        <v>0.8632767069481593</v>
       </c>
       <c r="J15" t="n">
         <v>0.07787893829578819</v>
@@ -1386,25 +1386,25 @@
         <v>0.06010249333381404</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06899079393143524</v>
+        <v>0.06899075011025999</v>
       </c>
       <c r="M15" t="n">
-        <v>1.018958440428399</v>
+        <v>1.018957985393321</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2364106249967893</v>
+        <v>0.236410551732006</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01278463645193</v>
+        <v>1.012784628527891</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2464751147403618</v>
+        <v>0.246475038356545</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7687401978612</v>
+        <v>103.7687414374806</v>
       </c>
       <c r="R15" t="n">
-        <v>163.4936556164031</v>
+        <v>163.4936568560224</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9874581935416403</v>
+        <v>0.9874581895048939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7972084923044753</v>
+        <v>0.7972084844092033</v>
       </c>
       <c r="E16" t="n">
         <v>0.9874662029278263</v>
@@ -1434,13 +1434,13 @@
         <v>0.9757671412021558</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9845875497145807</v>
+        <v>0.984587539950069</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0526352787307116</v>
+        <v>0.05263529567207255</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8510725761248303</v>
+        <v>0.8510726092595975</v>
       </c>
       <c r="J16" t="n">
         <v>0.09120967591587135</v>
@@ -1449,25 +1449,25 @@
         <v>0.06642866216745308</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07881908838101714</v>
+        <v>0.0788191383166148</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9544313014739256</v>
+        <v>0.954431382394705</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2294237972197122</v>
+        <v>0.2294238341412516</v>
       </c>
       <c r="O16" t="n">
-        <v>1.012040134200025</v>
+        <v>1.012040138075302</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2391908432400871</v>
+        <v>0.239190881733453</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.8887373715071</v>
+        <v>103.8887367277808</v>
       </c>
       <c r="R16" t="n">
-        <v>163.6136527900489</v>
+        <v>163.6136521463226</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9879634643618442</v>
+        <v>0.987963461192764</v>
       </c>
       <c r="D17" t="n">
-        <v>0.799619984750224</v>
+        <v>0.7996199935157291</v>
       </c>
       <c r="E17" t="n">
         <v>0.9857342539261763</v>
@@ -1497,13 +1497,13 @@
         <v>0.9733694563866638</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9827126564926597</v>
+        <v>0.9827126458807626</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05051476518713022</v>
+        <v>0.05051477848708193</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8409520582025987</v>
+        <v>0.8409520214156492</v>
       </c>
       <c r="J17" t="n">
         <v>0.1038132394037486</v>
@@ -1512,25 +1512,25 @@
         <v>0.0730013491096356</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08840727013193383</v>
+        <v>0.08840732440105038</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8958678606416661</v>
+        <v>0.8958675827382931</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2247549002516524</v>
+        <v>0.2247549298393295</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01155507421263</v>
+        <v>1.011555077254947</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2343231816621479</v>
+        <v>0.2343232125094337</v>
       </c>
       <c r="Q17" t="n">
-        <v>103.9709792109847</v>
+        <v>103.9709786844079</v>
       </c>
       <c r="R17" t="n">
-        <v>163.6958946295265</v>
+        <v>163.6958941029498</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9882599336312446</v>
+        <v>0.9882599322149546</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8016261428425346</v>
+        <v>0.8016261414693699</v>
       </c>
       <c r="E18" t="n">
         <v>0.9840979625558784</v>
@@ -1560,13 +1560,13 @@
         <v>0.9709579246576537</v>
       </c>
       <c r="G18" t="n">
-        <v>0.980902136637778</v>
+        <v>0.9809021232855945</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04927054708491431</v>
+        <v>0.04927055302878085</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8325326418515944</v>
+        <v>0.8325326476144729</v>
       </c>
       <c r="J18" t="n">
         <v>0.1157206928856746</v>
@@ -1575,25 +1575,25 @@
         <v>0.07961199409662978</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09766624724555401</v>
+        <v>0.09766631552846275</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8428578077753279</v>
+        <v>0.8428574019786178</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2219696985737339</v>
+        <v>0.2219697119626478</v>
       </c>
       <c r="O18" t="n">
-        <v>1.011270463714005</v>
+        <v>1.011270465073644</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2314194081826382</v>
+        <v>0.2314194221415458</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.0208575973479</v>
+        <v>104.0208573560733</v>
       </c>
       <c r="R18" t="n">
-        <v>163.7457730158897</v>
+        <v>163.7457727746151</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9883964684295107</v>
+        <v>0.9883964742813457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8032994847884061</v>
+        <v>0.8032994885299877</v>
       </c>
       <c r="E19" t="n">
         <v>0.9825532565271805</v>
@@ -1623,13 +1623,13 @@
         <v>0.9685874362267591</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9791677493020812</v>
+        <v>0.9791677525905982</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04869753974446192</v>
+        <v>0.04869751518556201</v>
       </c>
       <c r="I19" t="n">
-        <v>0.825509983670322</v>
+        <v>0.8255099679677047</v>
       </c>
       <c r="J19" t="n">
         <v>0.1269616708153096</v>
@@ -1638,25 +1638,25 @@
         <v>0.08611012857021318</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1065358835569543</v>
+        <v>0.1065358667395173</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7949672475978916</v>
+        <v>0.79496698099799</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2206751905957303</v>
+        <v>0.2206751349508186</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01113939030767</v>
+        <v>1.011139384689908</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2300697903200101</v>
+        <v>0.2300697323061792</v>
       </c>
       <c r="Q19" t="n">
-        <v>104.0442535375278</v>
+        <v>104.0442545461581</v>
       </c>
       <c r="R19" t="n">
-        <v>163.7691689560696</v>
+        <v>163.7691699646999</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9884121514766221</v>
+        <v>0.9884121558746189</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8046986451690941</v>
+        <v>0.8046986439453713</v>
       </c>
       <c r="E20" t="n">
         <v>0.981097304790884</v>
@@ -1686,13 +1686,13 @@
         <v>0.9662963284092526</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9775177998438929</v>
+        <v>0.9775178069100036</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04863172135069239</v>
+        <v>0.04863170289324036</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8196380068645093</v>
+        <v>0.8196380120002122</v>
       </c>
       <c r="J20" t="n">
         <v>0.1375567750165402</v>
@@ -1701,25 +1701,25 @@
         <v>0.09239065983018552</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1149737055619464</v>
+        <v>0.1149736694259399</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7517589497944706</v>
+        <v>0.751758780441072</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2205260105989595</v>
+        <v>0.2205259687502593</v>
       </c>
       <c r="O20" t="n">
-        <v>1.011124334582443</v>
+        <v>1.011124330360366</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2299142594219315</v>
+        <v>0.2299142157916455</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.0469585166086</v>
+        <v>104.0469592756792</v>
       </c>
       <c r="R20" t="n">
-        <v>163.7718739351504</v>
+        <v>163.7718746942211</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9695953452583022</v>
+        <v>0.9695953428737724</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8493755104463436</v>
+        <v>0.849375512737638</v>
       </c>
       <c r="E21" t="n">
         <v>0.9509375044582785</v>
@@ -1752,10 +1752,10 @@
         <v>0.9777166346032341</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1276018317101051</v>
+        <v>0.1276018417174664</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6321387606841433</v>
+        <v>0.6321387510680709</v>
       </c>
       <c r="J21" t="n">
         <v>0.178095958709722</v>
@@ -1767,22 +1767,22 @@
         <v>0.1310111270289878</v>
       </c>
       <c r="M21" t="n">
-        <v>1.185842806070891</v>
+        <v>1.185842891406431</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357213985882559</v>
+        <v>0.3572139998900748</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14594234276015</v>
+        <v>1.145942354205893</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3724213247964698</v>
+        <v>0.3724213394003146</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.11768110615922</v>
+        <v>62.11768094930629</v>
       </c>
       <c r="R21" t="n">
-        <v>97.46508002733704</v>
+        <v>97.4650798704841</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9700638172745748</v>
+        <v>0.9700638235228047</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8499455228850603</v>
+        <v>0.849945517773568</v>
       </c>
       <c r="E22" t="n">
         <v>0.9507813695442061</v>
@@ -1815,10 +1815,10 @@
         <v>0.9778550659964415</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1256357548745297</v>
+        <v>0.1256357286520456</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6297465404173551</v>
+        <v>0.6297465618691951</v>
       </c>
       <c r="J22" t="n">
         <v>0.1786627255833339</v>
@@ -1830,22 +1830,22 @@
         <v>0.130197244003809</v>
       </c>
       <c r="M22" t="n">
-        <v>1.170811737174611</v>
+        <v>1.170811678389614</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3544513434514387</v>
+        <v>0.3544513064611916</v>
       </c>
       <c r="O22" t="n">
-        <v>1.143693677082041</v>
+        <v>1.143693647090537</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3695410709575985</v>
+        <v>0.3695410323926001</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.14873678578335</v>
+        <v>62.14873720322004</v>
       </c>
       <c r="R22" t="n">
-        <v>97.49613570696116</v>
+        <v>97.49613612439785</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9705082273946911</v>
+        <v>0.9705082258452701</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8504938480825934</v>
+        <v>0.8504938519727263</v>
       </c>
       <c r="E23" t="n">
         <v>0.9505545071463867</v>
@@ -1878,10 +1878,10 @@
         <v>0.9779578814230412</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1237706606697409</v>
+        <v>0.1237706671723293</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6274453368624245</v>
+        <v>0.6274453205363689</v>
       </c>
       <c r="J23" t="n">
         <v>0.1794862319253726</v>
@@ -1893,22 +1893,22 @@
         <v>0.1295927587891673</v>
       </c>
       <c r="M23" t="n">
-        <v>1.155943518507769</v>
+        <v>1.155943673399758</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3518105465584295</v>
+        <v>0.3518105558000347</v>
       </c>
       <c r="O23" t="n">
-        <v>1.141560508505483</v>
+        <v>1.141560515942704</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3667878498736508</v>
+        <v>0.3667878595086903</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.17864987312352</v>
+        <v>62.17864976804873</v>
       </c>
       <c r="R23" t="n">
-        <v>97.52604879430133</v>
+        <v>97.52604868922654</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9709293131405815</v>
+        <v>0.9709293060608376</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8510211686259708</v>
+        <v>0.851021167145902</v>
       </c>
       <c r="E24" t="n">
         <v>0.9502596347410309</v>
@@ -1941,10 +1941,10 @@
         <v>0.9780263213552571</v>
       </c>
       <c r="H24" t="n">
-        <v>0.122003453873969</v>
+        <v>0.1220034835861395</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6252322853476171</v>
+        <v>0.6252322915591486</v>
       </c>
       <c r="J24" t="n">
         <v>0.1805566133470475</v>
@@ -1956,22 +1956,22 @@
         <v>0.1291903782468324</v>
       </c>
       <c r="M24" t="n">
-        <v>1.141236914379576</v>
+        <v>1.141237237501539</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3492899281026709</v>
+        <v>0.3492899706349146</v>
       </c>
       <c r="O24" t="n">
-        <v>1.139539296925209</v>
+        <v>1.13953933090798</v>
       </c>
       <c r="P24" t="n">
-        <v>0.364159923471831</v>
+        <v>0.3641599678147603</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.20741184841449</v>
+        <v>62.20741136134357</v>
       </c>
       <c r="R24" t="n">
-        <v>97.55481076959231</v>
+        <v>97.55481028252139</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9713278034606914</v>
+        <v>0.9713278042510151</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8515281873771684</v>
+        <v>0.8515281868146545</v>
       </c>
       <c r="E25" t="n">
         <v>0.9498994100638837</v>
@@ -2004,10 +2004,10 @@
         <v>0.9780615981878935</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1203310752465269</v>
+        <v>0.1203310719297075</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6231044361115767</v>
+        <v>0.6231044384723272</v>
       </c>
       <c r="J25" t="n">
         <v>0.1818642223163647</v>
@@ -2019,22 +2019,22 @@
         <v>0.1289829743148228</v>
       </c>
       <c r="M25" t="n">
-        <v>1.126689042805552</v>
+        <v>1.12668897795992</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3468876983211236</v>
+        <v>0.3468876935402977</v>
       </c>
       <c r="O25" t="n">
-        <v>1.137626543388681</v>
+        <v>1.137626539595128</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3616554257951821</v>
+        <v>0.3616554208108265</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.23501674951551</v>
+        <v>62.23501680464373</v>
       </c>
       <c r="R25" t="n">
-        <v>97.58241567069332</v>
+        <v>97.58241572582155</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9717043345542274</v>
+        <v>0.9717043250676251</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8520155915145105</v>
+        <v>0.852015591044989</v>
       </c>
       <c r="E26" t="n">
         <v>0.9494763189324775</v>
@@ -2067,10 +2067,10 @@
         <v>0.9780648823710928</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1187508547954418</v>
+        <v>0.1187508946086827</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6210589052138805</v>
+        <v>0.6210589071843615</v>
       </c>
       <c r="J26" t="n">
         <v>0.1834000353612856</v>
@@ -2082,22 +2082,22 @@
         <v>0.1289636655374166</v>
       </c>
       <c r="M26" t="n">
-        <v>1.112298994689049</v>
+        <v>1.112298844365399</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3446024590676071</v>
+        <v>0.3446025168345157</v>
       </c>
       <c r="O26" t="n">
-        <v>1.135819194139708</v>
+        <v>1.1358192396754</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3592728991755459</v>
+        <v>0.3592729594017114</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.26145527563177</v>
+        <v>62.26145460509792</v>
       </c>
       <c r="R26" t="n">
-        <v>97.60885419680959</v>
+        <v>97.60885352627574</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9720595112408812</v>
+        <v>0.9720595075391216</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8524839505633913</v>
+        <v>0.8524839490904363</v>
       </c>
       <c r="E27" t="n">
         <v>0.9489928282701927</v>
@@ -2130,10 +2130,10 @@
         <v>0.9780372391479608</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1172602542218532</v>
+        <v>0.1172602697573459</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6190933024782821</v>
+        <v>0.6190933086599593</v>
       </c>
       <c r="J27" t="n">
         <v>0.1851550975951988</v>
@@ -2145,22 +2145,22 @@
         <v>0.1291261890051578</v>
       </c>
       <c r="M27" t="n">
-        <v>1.098064388599067</v>
+        <v>1.098064463990309</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3424328462952309</v>
+        <v>0.3424328689792291</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13411434604377</v>
+        <v>1.134114363812216</v>
       </c>
       <c r="P27" t="n">
-        <v>0.357010921495732</v>
+        <v>0.3570109451454351</v>
       </c>
       <c r="Q27" t="n">
-        <v>62.28671883885977</v>
+        <v>62.28671857388522</v>
       </c>
       <c r="R27" t="n">
-        <v>97.63411776003758</v>
+        <v>97.63411749506304</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.972394042694642</v>
+        <v>0.9723940435199224</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8529338476989393</v>
+        <v>0.8529338472590444</v>
       </c>
       <c r="E28" t="n">
         <v>0.9484514684188053</v>
@@ -2193,10 +2193,10 @@
         <v>0.9779797854969787</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1158562972742356</v>
+        <v>0.1158562938107099</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6172051804435228</v>
+        <v>0.6172051822896673</v>
       </c>
       <c r="J28" t="n">
         <v>0.187120223923879</v>
@@ -2208,22 +2208,22 @@
         <v>0.1294639776395525</v>
       </c>
       <c r="M28" t="n">
-        <v>1.083985100629448</v>
+        <v>1.083985104279355</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3403766990765313</v>
+        <v>0.3403766939887481</v>
       </c>
       <c r="O28" t="n">
-        <v>1.132508595065718</v>
+        <v>1.132508591104372</v>
       </c>
       <c r="P28" t="n">
-        <v>0.354867239833121</v>
+        <v>0.3548672345287403</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.31080934488958</v>
+        <v>62.31080940467961</v>
       </c>
       <c r="R28" t="n">
-        <v>97.65820826606739</v>
+        <v>97.65820832585742</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9727085235947196</v>
+        <v>0.9727085215717505</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8533658567544502</v>
+        <v>0.8533658556125339</v>
       </c>
       <c r="E29" t="n">
         <v>0.9478546666566208</v>
@@ -2256,10 +2256,10 @@
         <v>0.9778935982233707</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1145364882111609</v>
+        <v>0.1145364967011296</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6153921308540156</v>
+        <v>0.6153921356463943</v>
       </c>
       <c r="J29" t="n">
         <v>0.1892866033716087</v>
@@ -2271,22 +2271,22 @@
         <v>0.1299707005537035</v>
       </c>
       <c r="M29" t="n">
-        <v>1.070057020385656</v>
+        <v>1.070057372003374</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3384323982882858</v>
+        <v>0.3384324108313647</v>
       </c>
       <c r="O29" t="n">
-        <v>1.130999086745346</v>
+        <v>1.130999096455598</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3528401661350623</v>
+        <v>0.3528401792121261</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.33372366484088</v>
+        <v>62.33372351659173</v>
       </c>
       <c r="R29" t="n">
-        <v>97.68112258601869</v>
+        <v>97.68112243776955</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9730035791679007</v>
+        <v>0.9730035740387794</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8537805213397832</v>
+        <v>0.8537805183941399</v>
       </c>
       <c r="E30" t="n">
         <v>0.9472049056540163</v>
@@ -2319,10 +2319,10 @@
         <v>0.9777797654225947</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1132982030895557</v>
+        <v>0.1132982246153808</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6136518722954721</v>
+        <v>0.6136518846577066</v>
       </c>
       <c r="J30" t="n">
         <v>0.1916452238904656</v>
@@ -2334,22 +2334,22 @@
         <v>0.1306399604817705</v>
       </c>
       <c r="M30" t="n">
-        <v>1.056279409484813</v>
+        <v>1.056279575851605</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3365979843813027</v>
+        <v>0.3365980163568716</v>
       </c>
       <c r="O30" t="n">
-        <v>1.129582819994077</v>
+        <v>1.129582844613859</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3509276574302987</v>
+        <v>0.3509276907671337</v>
       </c>
       <c r="Q30" t="n">
-        <v>62.35546394166147</v>
+        <v>62.35546356167622</v>
       </c>
       <c r="R30" t="n">
-        <v>97.70286286283928</v>
+        <v>97.70286248285403</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9732797356797771</v>
+        <v>0.9732797394502205</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8541782991817186</v>
+        <v>0.8541783011159483</v>
       </c>
       <c r="E31" t="n">
         <v>0.9465042355310699</v>
@@ -2382,10 +2382,10 @@
         <v>0.9776391575830193</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1121392332853115</v>
+        <v>0.1121392174615672</v>
       </c>
       <c r="I31" t="n">
-        <v>0.611982483786513</v>
+        <v>0.6119824756689652</v>
       </c>
       <c r="J31" t="n">
         <v>0.194188643582179</v>
@@ -2397,22 +2397,22 @@
         <v>0.131466639540516</v>
       </c>
       <c r="M31" t="n">
-        <v>1.042652306780362</v>
+        <v>1.042652579153392</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3348719655111659</v>
+        <v>0.3348719418846064</v>
       </c>
       <c r="O31" t="n">
-        <v>1.12825726873707</v>
+        <v>1.128257250638942</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3491281583635085</v>
+        <v>0.3491281337311175</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.37602805086089</v>
+        <v>62.37602833307693</v>
       </c>
       <c r="R31" t="n">
-        <v>97.72342697203871</v>
+        <v>97.72342725425474</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -2430,52 +2430,52 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9712945108608314</v>
+        <v>0.9712945229759579</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8129240213262108</v>
+        <v>0.8129240189223447</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9780684032418272</v>
+        <v>0.9780684012589861</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9980705567627379</v>
+        <v>0.9980705664203906</v>
       </c>
       <c r="G32" t="n">
-        <v>0.997501712804182</v>
+        <v>0.9975017167603235</v>
       </c>
       <c r="H32" t="n">
-        <v>0.120470797166102</v>
+        <v>0.120470746321508</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7851178627264045</v>
+        <v>0.7851178728149166</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005157254199723411</v>
+        <v>0.005157254665992037</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01544100903824519</v>
+        <v>0.01544093174967874</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01029915551254253</v>
+        <v>0.01029913920340239</v>
       </c>
       <c r="M32" t="n">
-        <v>1.100037623434118</v>
+        <v>1.100037291480758</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3470890334857931</v>
+        <v>0.3470889602414748</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01861977673892</v>
+        <v>1.01861976888046</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3618653322146327</v>
+        <v>0.3618652558521521</v>
       </c>
       <c r="Q32" t="n">
-        <v>126.2326958051831</v>
+        <v>126.2326966492815</v>
       </c>
       <c r="R32" t="n">
-        <v>200.5841211221433</v>
+        <v>200.5841219662417</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -2493,52 +2493,52 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9571733156134731</v>
+        <v>0.9571733125273292</v>
       </c>
       <c r="D33" t="n">
-        <v>0.762033580079305</v>
+        <v>0.7620335811189538</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9995132597121</v>
+        <v>0.999513253965262</v>
       </c>
       <c r="F33" t="n">
         <v>0.9852074887911049</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9970325170030825</v>
+        <v>0.9970325130773026</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1797344327773885</v>
+        <v>0.1797344457292743</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9986941580274984</v>
+        <v>0.9986941536643149</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003776911755907985</v>
+        <v>0.003776956349093086</v>
       </c>
       <c r="K33" t="n">
         <v>0.02993095689991668</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01685391445194601</v>
+        <v>0.01685393674853856</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6534748032641972</v>
+        <v>0.6534747227658009</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4239509792150367</v>
+        <v>0.4239509944902528</v>
       </c>
       <c r="O33" t="n">
-        <v>1.022840898339481</v>
+        <v>1.022840899985424</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4419994500997323</v>
+        <v>0.4419994660252459</v>
       </c>
       <c r="Q33" t="n">
-        <v>141.432549781972</v>
+        <v>141.4325496378495</v>
       </c>
       <c r="R33" t="n">
-        <v>225.5349816978778</v>
+        <v>225.5349815537553</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -2556,52 +2556,52 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9683607533239552</v>
+        <v>0.9683607432162221</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7751070956945405</v>
+        <v>0.7751071037794305</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9995225166280781</v>
+        <v>0.9995225021340145</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9898125078264712</v>
+        <v>0.9898125078245869</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9979528716447341</v>
+        <v>0.9979528597781351</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1327831499515237</v>
+        <v>0.132783192371517</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9438274097099496</v>
+        <v>0.9438273757793957</v>
       </c>
       <c r="J34" t="n">
-        <v>0.001282397790215578</v>
+        <v>0.001282436717550527</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0071617888388869</v>
+        <v>0.007161788840211563</v>
       </c>
       <c r="L34" t="n">
-        <v>0.004222093314551239</v>
+        <v>0.004222117788780308</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1950974448616726</v>
+        <v>0.1950988836524875</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3643942232685965</v>
+        <v>0.3643942814747742</v>
       </c>
       <c r="O34" t="n">
-        <v>1.014327206041983</v>
+        <v>1.014327210619069</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3799072397531714</v>
+        <v>0.3799073004373065</v>
       </c>
       <c r="Q34" t="n">
-        <v>158.0380758657705</v>
+        <v>158.0380752268343</v>
       </c>
       <c r="R34" t="n">
-        <v>251.891514380622</v>
+        <v>251.8915137416857</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -2619,52 +2619,52 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9683706246701674</v>
+        <v>0.9683706015330247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7751171948523291</v>
+        <v>0.7751172012454705</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9995226532318264</v>
+        <v>0.9995226480872498</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9897947254427949</v>
+        <v>0.9897946967167756</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9979499299685051</v>
+        <v>0.9979499217256734</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1327417220231741</v>
+        <v>0.1327418191248131</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9437850257051481</v>
+        <v>0.9437849988745016</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001282030907607148</v>
+        <v>0.001282044724619894</v>
       </c>
       <c r="K35" t="n">
-        <v>0.007174289822914369</v>
+        <v>0.007174310017254819</v>
       </c>
       <c r="L35" t="n">
-        <v>0.004228160365260758</v>
+        <v>0.004228177365662419</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1953719864502575</v>
+        <v>0.19537201870942</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3643373739038779</v>
+        <v>0.3643375071617155</v>
       </c>
       <c r="O35" t="n">
-        <v>1.014322735998415</v>
+        <v>1.014322746475611</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3798479701933023</v>
+        <v>0.3798481091242019</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.0386999568906</v>
+        <v>158.038698493875</v>
       </c>
       <c r="R35" t="n">
-        <v>251.892138471742</v>
+        <v>251.8921370087264</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -2682,52 +2682,52 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.996284824657873</v>
+        <v>0.9962848231945274</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8236386211250712</v>
+        <v>0.8236386209228548</v>
       </c>
       <c r="E36" t="n">
-        <v>0.997684389192381</v>
+        <v>0.9976843919598369</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9959288259899043</v>
+        <v>0.995928812609107</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9973847502838503</v>
+        <v>0.9973847451044503</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01559179615118176</v>
+        <v>0.01559180229253046</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7401509794649317</v>
+        <v>0.7401509803135911</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01532255982603298</v>
+        <v>0.01532254151358195</v>
       </c>
       <c r="K36" t="n">
-        <v>0.009212000889191382</v>
+        <v>0.009212031166432131</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01226726820845704</v>
+        <v>0.01226729250330293</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1062599907949282</v>
+        <v>0.1062591975783098</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1248671139699391</v>
+        <v>0.1248671385614745</v>
       </c>
       <c r="O36" t="n">
-        <v>1.001682343551152</v>
+        <v>1.001682344213799</v>
       </c>
       <c r="P36" t="n">
-        <v>0.1301829655221992</v>
+        <v>0.1301829911606471</v>
       </c>
       <c r="Q36" t="n">
-        <v>162.3220207815977</v>
+        <v>162.3220199938312</v>
       </c>
       <c r="R36" t="n">
-        <v>256.1754592964492</v>
+        <v>256.1754585086827</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -2745,52 +2745,52 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9959356189976901</v>
+        <v>0.9959356088979051</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8245493178490272</v>
+        <v>0.8245493190547525</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9979345736102139</v>
+        <v>0.9979345716540071</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9986584927465649</v>
+        <v>0.9986584807802198</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9982195977709823</v>
+        <v>0.998219593504952</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01705733760400981</v>
+        <v>0.01705737999064671</v>
       </c>
       <c r="I37" t="n">
-        <v>0.73632898013304</v>
+        <v>0.7363289750728688</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01366707191020028</v>
+        <v>0.01366708485455779</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003035479687395984</v>
+        <v>0.00303550676410212</v>
       </c>
       <c r="L37" t="n">
-        <v>0.00835127579879813</v>
+        <v>0.008351295809329954</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1008379364809752</v>
+        <v>0.1008381296180438</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1306037426876037</v>
+        <v>0.1306039049594104</v>
       </c>
       <c r="O37" t="n">
-        <v>1.00184047441614</v>
+        <v>1.001840478989628</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1361638144008333</v>
+        <v>0.1361639835808867</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.1423496196472</v>
+        <v>162.1423446497527</v>
       </c>
       <c r="R37" t="n">
-        <v>255.9957881344987</v>
+        <v>255.9957831646041</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -2808,52 +2808,52 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H38" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J38" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K38" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L38" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N38" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O38" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P38" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q38" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R38" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -2871,52 +2871,52 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J39" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K39" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L39" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N39" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O39" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P39" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q39" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R39" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -2934,52 +2934,52 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H40" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K40" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N40" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O40" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P40" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q40" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R40" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -2997,52 +2997,52 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K41" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N41" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O41" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P41" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q41" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R41" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -3060,52 +3060,52 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H42" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K42" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L42" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N42" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O42" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q42" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R42" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -3123,52 +3123,52 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H43" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J43" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K43" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L43" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N43" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O43" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P43" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q43" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R43" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -3186,52 +3186,52 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9979910659284981</v>
+        <v>0.9979910780212989</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7654422006163015</v>
+        <v>0.7654421952655303</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9995845906955427</v>
+        <v>0.9995845949441712</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9999999999845786</v>
+        <v>0.9999999999888033</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9997186216016796</v>
+        <v>0.9997186244795415</v>
       </c>
       <c r="H44" t="n">
-        <v>0.008431066541825587</v>
+        <v>0.008431015790927332</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9843889068144683</v>
+        <v>0.9843889292705108</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002173788386357681</v>
+        <v>0.002173766153781124</v>
       </c>
       <c r="K44" t="n">
-        <v>5.364377241573353e-12</v>
+        <v>3.894811949413964e-12</v>
       </c>
       <c r="L44" t="n">
-        <v>0.00108689419529705</v>
+        <v>0.001086883078837968</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1521062382949707</v>
+        <v>0.1521060159874306</v>
       </c>
       <c r="N44" t="n">
-        <v>0.09182083936572126</v>
+        <v>0.09182056300702655</v>
       </c>
       <c r="O44" t="n">
-        <v>1.000845866977474</v>
+        <v>1.000845861885769</v>
       </c>
       <c r="P44" t="n">
-        <v>0.09572984259286077</v>
+        <v>0.09572955446900429</v>
       </c>
       <c r="Q44" t="n">
-        <v>171.551663995108</v>
+        <v>171.5516760341663</v>
       </c>
       <c r="R44" t="n">
-        <v>270.2806058094322</v>
+        <v>270.2806178484906</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -3249,52 +3249,52 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9908867843739317</v>
+        <v>0.9908867874110313</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7699988732827707</v>
+        <v>0.7699988705718144</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9999462129539248</v>
+        <v>0.9999462108752936</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9973598169236039</v>
+        <v>0.9973598089696012</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9989351001075806</v>
+        <v>0.9989350948991211</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0382462164604251</v>
+        <v>0.0382462037143677</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9652655264082624</v>
+        <v>0.9652655377855661</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0001523421646077757</v>
+        <v>0.0001523480519583156</v>
       </c>
       <c r="K45" t="n">
-        <v>0.006262795324267057</v>
+        <v>0.00626281419200811</v>
       </c>
       <c r="L45" t="n">
-        <v>0.003207571687194058</v>
+        <v>0.003207587375529816</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3872744818499268</v>
+        <v>0.387274437277734</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1955663991089091</v>
+        <v>0.195566366521362</v>
       </c>
       <c r="O45" t="n">
-        <v>1.003837143421502</v>
+        <v>1.003837142142724</v>
       </c>
       <c r="P45" t="n">
-        <v>0.203892065597231</v>
+        <v>0.2038920316223646</v>
       </c>
       <c r="Q45" t="n">
-        <v>168.5274212793389</v>
+        <v>168.5274219458654</v>
       </c>
       <c r="R45" t="n">
-        <v>267.2563630936631</v>
+        <v>267.2563637601896</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -3312,52 +3312,52 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9908867843739317</v>
+        <v>0.9908867874110313</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7699988732827707</v>
+        <v>0.7699988705718144</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9999462129539248</v>
+        <v>0.9999462108752936</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9973598169236039</v>
+        <v>0.9973598089696012</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9989351001075806</v>
+        <v>0.9989350948991211</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0382462164604251</v>
+        <v>0.0382462037143677</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9652655264082624</v>
+        <v>0.9652655377855661</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0001523421646077757</v>
+        <v>0.0001523480519583156</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006262795324267057</v>
+        <v>0.00626281419200811</v>
       </c>
       <c r="L46" t="n">
-        <v>0.003207571687194058</v>
+        <v>0.003207587375529816</v>
       </c>
       <c r="M46" t="n">
-        <v>0.3872744818499268</v>
+        <v>0.387274437277734</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1955663991089091</v>
+        <v>0.195566366521362</v>
       </c>
       <c r="O46" t="n">
-        <v>1.003837143421502</v>
+        <v>1.003837142142724</v>
       </c>
       <c r="P46" t="n">
-        <v>0.203892065597231</v>
+        <v>0.2038920316223646</v>
       </c>
       <c r="Q46" t="n">
-        <v>168.5274212793389</v>
+        <v>168.5274219458654</v>
       </c>
       <c r="R46" t="n">
-        <v>267.2563630936631</v>
+        <v>267.2563637601896</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -3375,52 +3375,52 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9908867843739317</v>
+        <v>0.9908867874110313</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7699988732827707</v>
+        <v>0.7699988705718144</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9999462129539248</v>
+        <v>0.9999462108752936</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9973598169236039</v>
+        <v>0.9973598089696012</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9989351001075806</v>
+        <v>0.9989350948991211</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0382462164604251</v>
+        <v>0.0382462037143677</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9652655264082624</v>
+        <v>0.9652655377855661</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0001523421646077757</v>
+        <v>0.0001523480519583156</v>
       </c>
       <c r="K47" t="n">
-        <v>0.006262795324267057</v>
+        <v>0.00626281419200811</v>
       </c>
       <c r="L47" t="n">
-        <v>0.003207571687194058</v>
+        <v>0.003207587375529816</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3872744818499268</v>
+        <v>0.387274437277734</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1955663991089091</v>
+        <v>0.195566366521362</v>
       </c>
       <c r="O47" t="n">
-        <v>1.003837143421502</v>
+        <v>1.003837142142724</v>
       </c>
       <c r="P47" t="n">
-        <v>0.203892065597231</v>
+        <v>0.2038920316223646</v>
       </c>
       <c r="Q47" t="n">
-        <v>168.5274212793389</v>
+        <v>168.5274219458654</v>
       </c>
       <c r="R47" t="n">
-        <v>267.2563630936631</v>
+        <v>267.2563637601896</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -3438,52 +3438,52 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9908867843739317</v>
+        <v>0.9908867874110313</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7699988732827707</v>
+        <v>0.7699988705718144</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9999462129539248</v>
+        <v>0.9999462108752936</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9973598169236039</v>
+        <v>0.9973598089696012</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9989351001075806</v>
+        <v>0.9989350948991211</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0382462164604251</v>
+        <v>0.0382462037143677</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9652655264082624</v>
+        <v>0.9652655377855661</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0001523421646077757</v>
+        <v>0.0001523480519583156</v>
       </c>
       <c r="K48" t="n">
-        <v>0.006262795324267057</v>
+        <v>0.00626281419200811</v>
       </c>
       <c r="L48" t="n">
-        <v>0.003207571687194058</v>
+        <v>0.003207587375529816</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3872744818499268</v>
+        <v>0.387274437277734</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1955663991089091</v>
+        <v>0.195566366521362</v>
       </c>
       <c r="O48" t="n">
-        <v>1.003837143421502</v>
+        <v>1.003837142142724</v>
       </c>
       <c r="P48" t="n">
-        <v>0.203892065597231</v>
+        <v>0.2038920316223646</v>
       </c>
       <c r="Q48" t="n">
-        <v>168.5274212793389</v>
+        <v>168.5274219458654</v>
       </c>
       <c r="R48" t="n">
-        <v>267.2563630936631</v>
+        <v>267.2563637601896</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -3501,52 +3501,52 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9908867843739317</v>
+        <v>0.9908867874110313</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7699988732827707</v>
+        <v>0.7699988705718144</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9999462129539248</v>
+        <v>0.9999462108752936</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9973598169236039</v>
+        <v>0.9973598089696012</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9989351001075806</v>
+        <v>0.9989350948991211</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0382462164604251</v>
+        <v>0.0382462037143677</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9652655264082624</v>
+        <v>0.9652655377855661</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0001523421646077757</v>
+        <v>0.0001523480519583156</v>
       </c>
       <c r="K49" t="n">
-        <v>0.006262795324267057</v>
+        <v>0.00626281419200811</v>
       </c>
       <c r="L49" t="n">
-        <v>0.003207571687194058</v>
+        <v>0.003207587375529816</v>
       </c>
       <c r="M49" t="n">
-        <v>0.3872744818499268</v>
+        <v>0.387274437277734</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1955663991089091</v>
+        <v>0.195566366521362</v>
       </c>
       <c r="O49" t="n">
-        <v>1.003837143421502</v>
+        <v>1.003837142142724</v>
       </c>
       <c r="P49" t="n">
-        <v>0.203892065597231</v>
+        <v>0.2038920316223646</v>
       </c>
       <c r="Q49" t="n">
-        <v>168.5274212793389</v>
+        <v>168.5274219458654</v>
       </c>
       <c r="R49" t="n">
-        <v>267.2563630936631</v>
+        <v>267.2563637601896</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -3564,52 +3564,52 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9975428472604969</v>
+        <v>0.9975428480369604</v>
       </c>
       <c r="D50" t="n">
-        <v>0.785772938066487</v>
+        <v>0.7857729349861184</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9980593185474894</v>
+        <v>0.9980593103025791</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9952689234449547</v>
+        <v>0.9952689137327351</v>
       </c>
       <c r="G50" t="n">
-        <v>0.998194175987477</v>
+        <v>0.9981941693018924</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01031214440735317</v>
+        <v>0.01031214114870185</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8990651509389221</v>
+        <v>0.8990651638665699</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01259708662422746</v>
+        <v>0.01259714014246418</v>
       </c>
       <c r="K50" t="n">
-        <v>0.004171791601269273</v>
+        <v>0.004171800165357317</v>
       </c>
       <c r="L50" t="n">
-        <v>0.008384439112748368</v>
+        <v>0.00838447015391075</v>
       </c>
       <c r="M50" t="n">
-        <v>0.07072327876247046</v>
+        <v>0.07072330686180389</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1015487292256933</v>
+        <v>0.1015487131809254</v>
       </c>
       <c r="O50" t="n">
-        <v>1.001034590627159</v>
+        <v>1.001034590300227</v>
       </c>
       <c r="P50" t="n">
-        <v>0.1058718688636799</v>
+        <v>0.105871852135853</v>
       </c>
       <c r="Q50" t="n">
-        <v>171.1488660192541</v>
+        <v>171.1488666512569</v>
       </c>
       <c r="R50" t="n">
-        <v>269.8778078335783</v>
+        <v>269.8778084655811</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -3627,52 +3627,52 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9975428472604969</v>
+        <v>0.9975428480369604</v>
       </c>
       <c r="D51" t="n">
-        <v>0.785772938066487</v>
+        <v>0.7857729349861184</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9980593185474894</v>
+        <v>0.9980593103025791</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9952689234449547</v>
+        <v>0.9952689137327351</v>
       </c>
       <c r="G51" t="n">
-        <v>0.998194175987477</v>
+        <v>0.9981941693018924</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01031214440735317</v>
+        <v>0.01031214114870185</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8990651509389221</v>
+        <v>0.8990651638665699</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01259708662422746</v>
+        <v>0.01259714014246418</v>
       </c>
       <c r="K51" t="n">
-        <v>0.004171791601269273</v>
+        <v>0.004171800165357317</v>
       </c>
       <c r="L51" t="n">
-        <v>0.008384439112748368</v>
+        <v>0.00838447015391075</v>
       </c>
       <c r="M51" t="n">
-        <v>0.07072327876247046</v>
+        <v>0.07072330686180389</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1015487292256933</v>
+        <v>0.1015487131809254</v>
       </c>
       <c r="O51" t="n">
-        <v>1.001034590627159</v>
+        <v>1.001034590300227</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1058718688636799</v>
+        <v>0.105871852135853</v>
       </c>
       <c r="Q51" t="n">
-        <v>171.1488660192541</v>
+        <v>171.1488666512569</v>
       </c>
       <c r="R51" t="n">
-        <v>269.8778078335783</v>
+        <v>269.8778084655811</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -3690,52 +3690,52 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9975428472604969</v>
+        <v>0.9975428480369604</v>
       </c>
       <c r="D52" t="n">
-        <v>0.785772938066487</v>
+        <v>0.7857729349861184</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9980593185474894</v>
+        <v>0.9980593103025791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9952689234449547</v>
+        <v>0.9952689137327351</v>
       </c>
       <c r="G52" t="n">
-        <v>0.998194175987477</v>
+        <v>0.9981941693018924</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01031214440735317</v>
+        <v>0.01031214114870185</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8990651509389221</v>
+        <v>0.8990651638665699</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01259708662422746</v>
+        <v>0.01259714014246418</v>
       </c>
       <c r="K52" t="n">
-        <v>0.004171791601269273</v>
+        <v>0.004171800165357317</v>
       </c>
       <c r="L52" t="n">
-        <v>0.008384439112748368</v>
+        <v>0.00838447015391075</v>
       </c>
       <c r="M52" t="n">
-        <v>0.07072327876247046</v>
+        <v>0.07072330686180389</v>
       </c>
       <c r="N52" t="n">
-        <v>0.1015487292256933</v>
+        <v>0.1015487131809254</v>
       </c>
       <c r="O52" t="n">
-        <v>1.001034590627159</v>
+        <v>1.001034590300227</v>
       </c>
       <c r="P52" t="n">
-        <v>0.1058718688636799</v>
+        <v>0.105871852135853</v>
       </c>
       <c r="Q52" t="n">
-        <v>171.1488660192541</v>
+        <v>171.1488666512569</v>
       </c>
       <c r="R52" t="n">
-        <v>269.8778078335783</v>
+        <v>269.8778084655811</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -3753,52 +3753,52 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9893822739106574</v>
+        <v>0.9893822723032463</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8177694587306553</v>
+        <v>0.8177694584141958</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9841950709187203</v>
+        <v>0.9841951213004814</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9708373239217984</v>
+        <v>0.9708373270408592</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9835284076258771</v>
+        <v>0.9835284326696941</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04456032502609616</v>
+        <v>0.04456033177205652</v>
       </c>
       <c r="I53" t="n">
-        <v>0.764782598488201</v>
+        <v>0.7647825998163138</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02899634318189147</v>
+        <v>0.02899625074953528</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03420346145641381</v>
+        <v>0.03420345779822161</v>
       </c>
       <c r="L53" t="n">
-        <v>0.03159990231915264</v>
+        <v>0.03159985427387845</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8152152404916363</v>
+        <v>0.8152148642416631</v>
       </c>
       <c r="N53" t="n">
-        <v>0.2110931666968312</v>
+        <v>0.2110931826754633</v>
       </c>
       <c r="O53" t="n">
-        <v>1.006887173679574</v>
+        <v>1.006887174722219</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2200798398262108</v>
+        <v>0.2200798564850864</v>
       </c>
       <c r="Q53" t="n">
-        <v>128.2218227785345</v>
+        <v>128.2218224757558</v>
       </c>
       <c r="R53" t="n">
-        <v>202.5732480954948</v>
+        <v>202.573247792716</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -3816,52 +3816,52 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.98873229720752</v>
+        <v>0.9887322947521782</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8149619167861615</v>
+        <v>0.8149619237913603</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9998351626214131</v>
+        <v>0.9998351708859176</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9912006407532905</v>
+        <v>0.9912006306469555</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9931868677873672</v>
+        <v>0.9931868617190807</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0472881382045</v>
+        <v>0.04728814850904459</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7765652514327535</v>
+        <v>0.7765652220334323</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0001448875595164072</v>
+        <v>0.0001448802952424574</v>
       </c>
       <c r="K54" t="n">
-        <v>0.02606206227921246</v>
+        <v>0.02606209221229323</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01310347476978492</v>
+        <v>0.01310348644072225</v>
       </c>
       <c r="M54" t="n">
-        <v>0.3387276763130908</v>
+        <v>0.3387284511548581</v>
       </c>
       <c r="N54" t="n">
-        <v>0.2174583597024957</v>
+        <v>0.2174583833956387</v>
       </c>
       <c r="O54" t="n">
-        <v>1.007308780189717</v>
+        <v>1.007308781782371</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2267160122758924</v>
+        <v>0.2267160369777016</v>
       </c>
       <c r="Q54" t="n">
-        <v>128.1029915857037</v>
+        <v>128.1029911498843</v>
       </c>
       <c r="R54" t="n">
-        <v>202.4544169026639</v>
+        <v>202.4544164668445</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -3879,52 +3879,52 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.990481012974581</v>
+        <v>0.9904810070938224</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8169840407388794</v>
+        <v>0.8169840553091642</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9993933948620859</v>
+        <v>0.9993933849106877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9894663559604661</v>
+        <v>0.9894663442315245</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9917505280975358</v>
+        <v>0.9917505167923091</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03994915221985368</v>
+        <v>0.03994917690013963</v>
       </c>
       <c r="I55" t="n">
-        <v>0.768078829781077</v>
+        <v>0.7680787686327089</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0005331893698866979</v>
+        <v>0.0005331981168942401</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03119869064194032</v>
+        <v>0.03119872538087988</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01586594000591351</v>
+        <v>0.01586596174888706</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3343105518671319</v>
+        <v>0.334310781911429</v>
       </c>
       <c r="N55" t="n">
-        <v>0.19987284012555</v>
+        <v>0.1998729018655096</v>
       </c>
       <c r="O55" t="n">
-        <v>1.006174478070542</v>
+        <v>1.006174481885088</v>
       </c>
       <c r="P55" t="n">
-        <v>0.2083818407235122</v>
+        <v>0.2083819050918697</v>
       </c>
       <c r="Q55" t="n">
-        <v>128.4402956560499</v>
+        <v>128.4402944204654</v>
       </c>
       <c r="R55" t="n">
-        <v>202.7917209730102</v>
+        <v>202.7917197374256</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -3942,52 +3942,52 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9605030589337884</v>
+        <v>0.9605030822892956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8192043291103566</v>
+        <v>0.8192043279429426</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9494910690268713</v>
+        <v>0.9494911368347839</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9472981746583152</v>
+        <v>0.9472981700438394</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9528448947206825</v>
+        <v>0.9528449095545299</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1657602123691552</v>
+        <v>0.1657601143510876</v>
       </c>
       <c r="I56" t="n">
-        <v>0.758760754455703</v>
+        <v>0.7587607593550896</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1562607686742314</v>
+        <v>0.1562605588951617</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3994273311721069</v>
+        <v>0.3994273661452361</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2778440499231692</v>
+        <v>0.2778439625201989</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9240567542468705</v>
+        <v>0.9240565286415509</v>
       </c>
       <c r="N56" t="n">
-        <v>0.4071366016082996</v>
+        <v>0.4071364812333668</v>
       </c>
       <c r="O56" t="n">
-        <v>1.023120160624124</v>
+        <v>1.023120146952607</v>
       </c>
       <c r="P56" t="n">
-        <v>0.4244692496277163</v>
+        <v>0.4244691241281735</v>
       </c>
       <c r="Q56" t="n">
-        <v>133.5944260774545</v>
+        <v>133.5944272601038</v>
       </c>
       <c r="R56" t="n">
-        <v>212.8213546938876</v>
+        <v>212.8213558765368</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -4005,52 +4005,52 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9959356189976901</v>
+        <v>0.9959356088979051</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8245493178490272</v>
+        <v>0.8245493190547525</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9979345736102139</v>
+        <v>0.9979345716540071</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9986584927465649</v>
+        <v>0.9986584807802198</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9982195977709823</v>
+        <v>0.998219593504952</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01705733760400981</v>
+        <v>0.01705737999064671</v>
       </c>
       <c r="I57" t="n">
-        <v>0.73632898013304</v>
+        <v>0.7363289750728688</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01366707191020028</v>
+        <v>0.01366708485455779</v>
       </c>
       <c r="K57" t="n">
-        <v>0.003035479687395984</v>
+        <v>0.00303550676410212</v>
       </c>
       <c r="L57" t="n">
-        <v>0.00835127579879813</v>
+        <v>0.008351295809329954</v>
       </c>
       <c r="M57" t="n">
-        <v>0.1008379364809752</v>
+        <v>0.1008381296180438</v>
       </c>
       <c r="N57" t="n">
-        <v>0.1306037426876037</v>
+        <v>0.1306039049594104</v>
       </c>
       <c r="O57" t="n">
-        <v>1.00184047441614</v>
+        <v>1.001840478989628</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1361638144008333</v>
+        <v>0.1361639835808867</v>
       </c>
       <c r="Q57" t="n">
-        <v>162.1423496196472</v>
+        <v>162.1423446497527</v>
       </c>
       <c r="R57" t="n">
-        <v>255.9957881344987</v>
+        <v>255.9957831646041</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -4068,52 +4068,52 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.996284824657873</v>
+        <v>0.9962848231945274</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8236386211250712</v>
+        <v>0.8236386209228548</v>
       </c>
       <c r="E58" t="n">
-        <v>0.997684389192381</v>
+        <v>0.9976843919598369</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9959288259899043</v>
+        <v>0.995928812609107</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9973847502838503</v>
+        <v>0.9973847451044503</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01559179615118176</v>
+        <v>0.01559180229253046</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7401509794649317</v>
+        <v>0.7401509803135911</v>
       </c>
       <c r="J58" t="n">
-        <v>0.01532255982603298</v>
+        <v>0.01532254151358195</v>
       </c>
       <c r="K58" t="n">
-        <v>0.009212000889191382</v>
+        <v>0.009212031166432131</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01226726820845704</v>
+        <v>0.01226729250330293</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1062599907949282</v>
+        <v>0.1062591975783098</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1248671139699391</v>
+        <v>0.1248671385614745</v>
       </c>
       <c r="O58" t="n">
-        <v>1.001682343551152</v>
+        <v>1.001682344213799</v>
       </c>
       <c r="P58" t="n">
-        <v>0.1301829655221992</v>
+        <v>0.1301829911606471</v>
       </c>
       <c r="Q58" t="n">
-        <v>162.3220207815977</v>
+        <v>162.3220199938312</v>
       </c>
       <c r="R58" t="n">
-        <v>256.1754592964492</v>
+        <v>256.1754585086827</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -4131,52 +4131,52 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9963853075988429</v>
+        <v>0.9963853020949579</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8226301733188517</v>
+        <v>0.8226301727308531</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9974049748770236</v>
+        <v>0.9974049833718153</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9918175924357792</v>
+        <v>0.9918175765715348</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9961960521458485</v>
+        <v>0.9961960543112122</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01517009074349644</v>
+        <v>0.01517011384212448</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7443832191779245</v>
+        <v>0.7443832216456285</v>
       </c>
       <c r="J59" t="n">
-        <v>0.01717146403274478</v>
+        <v>0.01717140782210964</v>
       </c>
       <c r="K59" t="n">
-        <v>0.01851464603831951</v>
+        <v>0.01851468193495091</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01784305655008807</v>
+        <v>0.0178430463930862</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1113635693372018</v>
+        <v>0.1113636994273048</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1231669222782499</v>
+        <v>0.1231670160478222</v>
       </c>
       <c r="O59" t="n">
-        <v>1.001636841842033</v>
+        <v>1.001636844334359</v>
       </c>
       <c r="P59" t="n">
-        <v>0.1284103931503127</v>
+        <v>0.1284104909118498</v>
       </c>
       <c r="Q59" t="n">
-        <v>162.3768590077332</v>
+        <v>162.3768559624501</v>
       </c>
       <c r="R59" t="n">
-        <v>256.2302975225846</v>
+        <v>256.2302944773015</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -4194,52 +4194,52 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.996299771899533</v>
+        <v>0.9962997741562446</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8215658157683758</v>
+        <v>0.8215658170792831</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9971081971512545</v>
+        <v>0.9971082081498881</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9867505240207884</v>
+        <v>0.9867504998948208</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9947645667778228</v>
+        <v>0.9947645687165642</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01552906577548658</v>
+        <v>0.01552905630455089</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7488501001272069</v>
+        <v>0.7488500946256098</v>
       </c>
       <c r="J60" t="n">
-        <v>0.01913526314923165</v>
+        <v>0.01913519037049869</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02998009522539314</v>
+        <v>0.02998014981614153</v>
       </c>
       <c r="L60" t="n">
-        <v>0.02455767918731239</v>
+        <v>0.02455767009332011</v>
       </c>
       <c r="M60" t="n">
-        <v>0.1165356886883638</v>
+        <v>0.1165343535077648</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1246156722707324</v>
+        <v>0.1246156342701464</v>
       </c>
       <c r="O60" t="n">
-        <v>1.001675574988891</v>
+        <v>1.001675573966984</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1299208194293011</v>
+        <v>0.1299207798109515</v>
       </c>
       <c r="Q60" t="n">
-        <v>162.3300835994981</v>
+        <v>162.3300848192674</v>
       </c>
       <c r="R60" t="n">
-        <v>256.1835221143496</v>
+        <v>256.1835233341188</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -4257,52 +4257,52 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9960783143377027</v>
+        <v>0.9960783144437187</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8204781164646834</v>
+        <v>0.8204781156095657</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9968033142670046</v>
+        <v>0.9968033141580961</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9810649822366897</v>
+        <v>0.9810649942949309</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9931781903654718</v>
+        <v>0.9931781938573254</v>
       </c>
       <c r="H61" t="n">
-        <v>0.01645847578772584</v>
+        <v>0.01645847534279892</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7534149414214124</v>
+        <v>0.7534149450101582</v>
       </c>
       <c r="J61" t="n">
-        <v>0.02115269467031515</v>
+        <v>0.02115269539097074</v>
       </c>
       <c r="K61" t="n">
-        <v>0.04284498772096618</v>
+        <v>0.04284496043632337</v>
       </c>
       <c r="L61" t="n">
-        <v>0.03199884429277282</v>
+        <v>0.03199882791364705</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1215565910211321</v>
+        <v>0.1215565801987379</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1282905911894003</v>
+        <v>0.1282905894553412</v>
       </c>
       <c r="O61" t="n">
-        <v>1.001775857658399</v>
+        <v>1.001775857610391</v>
       </c>
       <c r="P61" t="n">
-        <v>0.1337521872544676</v>
+        <v>0.1337521854465861</v>
       </c>
       <c r="Q61" t="n">
-        <v>162.2138293780193</v>
+        <v>162.2138294320859</v>
       </c>
       <c r="R61" t="n">
-        <v>256.0672678928707</v>
+        <v>256.0672679469374</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -4320,52 +4320,52 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.9962993254470779</v>
+        <v>0.9962993217742975</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8162918396396319</v>
+        <v>0.8162918404282814</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9902858295540363</v>
+        <v>0.9902858143321579</v>
       </c>
       <c r="F62" t="n">
-        <v>0.980607357029417</v>
+        <v>0.9806073385354827</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9852006122576979</v>
+        <v>0.9852005963408731</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01553093944093452</v>
+        <v>0.01553095485480858</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7709838497172052</v>
+        <v>0.7709838464074122</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01577776851725441</v>
+        <v>0.01577779324064951</v>
       </c>
       <c r="K62" t="n">
-        <v>0.06363787355515367</v>
+        <v>0.06363793424387257</v>
       </c>
       <c r="L62" t="n">
-        <v>0.03970783490966594</v>
+        <v>0.03970787761566609</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1112866190113129</v>
+        <v>0.1112867636321307</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1246231898200914</v>
+        <v>0.1246232516619935</v>
       </c>
       <c r="O62" t="n">
-        <v>1.00167577715604</v>
+        <v>1.001675778819186</v>
       </c>
       <c r="P62" t="n">
-        <v>0.1299286570162998</v>
+        <v>0.1299287214909398</v>
       </c>
       <c r="Q62" t="n">
-        <v>162.3298423032797</v>
+        <v>162.3298403183558</v>
       </c>
       <c r="R62" t="n">
-        <v>256.1832808181312</v>
+        <v>256.1832788332073</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9962514363928746</v>
+        <v>0.996251427770635</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8163560391323537</v>
+        <v>0.8163560410612019</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9898842899084639</v>
+        <v>0.9898843163239464</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9794017699803894</v>
+        <v>0.9794016988460814</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9843418214158953</v>
+        <v>0.9843417932869544</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01573191955687787</v>
+        <v>0.015731955742573</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7707144181799706</v>
+        <v>0.7707144100850072</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01642994974194915</v>
+        <v>0.01642990683788752</v>
       </c>
       <c r="K63" t="n">
-        <v>0.06759406437979434</v>
+        <v>0.06759429781038487</v>
       </c>
       <c r="L63" t="n">
-        <v>0.04201203326989684</v>
+        <v>0.04201210874189362</v>
       </c>
       <c r="M63" t="n">
-        <v>0.1153926834673894</v>
+        <v>0.115392475831469</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1254269490854253</v>
+        <v>0.1254270933354233</v>
       </c>
       <c r="O63" t="n">
-        <v>1.001697462765491</v>
+        <v>1.001697466669901</v>
       </c>
       <c r="P63" t="n">
-        <v>0.13076663397757</v>
+        <v>0.1307667843685892</v>
       </c>
       <c r="Q63" t="n">
-        <v>162.3041270755386</v>
+        <v>162.304122475254</v>
       </c>
       <c r="R63" t="n">
-        <v>256.15756559039</v>
+        <v>256.1575609901054</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -4446,52 +4446,52 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9766656867438889</v>
+        <v>0.9766656937166542</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8443005309219538</v>
+        <v>0.844300535331679</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9539390221173958</v>
+        <v>0.9539390068046577</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9732064388570254</v>
+        <v>0.9732064388569992</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9689529348678825</v>
+        <v>0.9689529314503653</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0979291210004673</v>
+        <v>0.09792909173726309</v>
       </c>
       <c r="I64" t="n">
-        <v>0.6534373640955258</v>
+        <v>0.653437345588852</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1285830473808772</v>
+        <v>0.1285830901276581</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2597597715619534</v>
+        <v>0.2597597715622081</v>
       </c>
       <c r="L64" t="n">
-        <v>0.1941714094713998</v>
+        <v>0.1941714308448892</v>
       </c>
       <c r="M64" t="n">
-        <v>0.06757941518466225</v>
+        <v>0.06757874838516995</v>
       </c>
       <c r="N64" t="n">
-        <v>0.3129362890437402</v>
+        <v>0.312936242287887</v>
       </c>
       <c r="O64" t="n">
-        <v>1.008116282871691</v>
+        <v>1.008116280446381</v>
       </c>
       <c r="P64" t="n">
-        <v>0.3262586347357543</v>
+        <v>0.3262585859894077</v>
       </c>
       <c r="Q64" t="n">
-        <v>190.647022634168</v>
+        <v>190.6470232318086</v>
       </c>
       <c r="R64" t="n">
-        <v>304.0024743469106</v>
+        <v>304.0024749445512</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -4509,52 +4509,52 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.976665737321168</v>
+        <v>0.9766657210036532</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8443005559397172</v>
+        <v>0.8443005660171329</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9539348413483797</v>
+        <v>0.9539348413458916</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9732050350271058</v>
+        <v>0.9732049848911146</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9689509137223544</v>
+        <v>0.9689508748620298</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09792890873844645</v>
+        <v>0.09792897721956532</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6534372591013242</v>
+        <v>0.6534372168085667</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1285947183450034</v>
+        <v>0.1285947183519491</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2597733814937316</v>
+        <v>0.2597738675550486</v>
       </c>
       <c r="L65" t="n">
-        <v>0.194184049915006</v>
+        <v>0.194184292951311</v>
       </c>
       <c r="M65" t="n">
-        <v>0.06767515379381381</v>
+        <v>0.0676751523290887</v>
       </c>
       <c r="N65" t="n">
-        <v>0.3129359498978129</v>
+        <v>0.3129360593149427</v>
       </c>
       <c r="O65" t="n">
-        <v>1.008116265279594</v>
+        <v>1.008116270955251</v>
       </c>
       <c r="P65" t="n">
-        <v>0.3262582811516828</v>
+        <v>0.3262583952269263</v>
       </c>
       <c r="Q65" t="n">
-        <v>190.647026969186</v>
+        <v>190.647025570598</v>
       </c>
       <c r="R65" t="n">
-        <v>304.0024786819286</v>
+        <v>304.0024772833407</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -4572,52 +4572,52 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9780802592390818</v>
+        <v>0.9780802579647371</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8436174914431109</v>
+        <v>0.8436174861866937</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9565248568711301</v>
+        <v>0.9565248624766803</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9718976908252829</v>
+        <v>0.9718976636380592</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9685156573283282</v>
+        <v>0.9685156375070937</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09199246284707616</v>
+        <v>0.09199246819522827</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6563039346706927</v>
+        <v>0.6563039567307509</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1213644747855239</v>
+        <v>0.1213644591371646</v>
       </c>
       <c r="K66" t="n">
-        <v>0.272447897934686</v>
+        <v>0.27244816151096</v>
       </c>
       <c r="L66" t="n">
-        <v>0.196906186360105</v>
+        <v>0.1969063103240623</v>
       </c>
       <c r="M66" t="n">
-        <v>0.06936089631212747</v>
+        <v>0.06936136503894938</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3033025928789204</v>
+        <v>0.3033026016954491</v>
       </c>
       <c r="O66" t="n">
-        <v>1.007624257655972</v>
+        <v>1.007624258099222</v>
       </c>
       <c r="P66" t="n">
-        <v>0.316214812180698</v>
+        <v>0.3162148213725646</v>
       </c>
       <c r="Q66" t="n">
-        <v>190.7720972617289</v>
+        <v>190.7720971454552</v>
       </c>
       <c r="R66" t="n">
-        <v>304.1275489744716</v>
+        <v>304.1275488581978</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -4635,52 +4635,52 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.979097070439742</v>
+        <v>0.9790970816623994</v>
       </c>
       <c r="D67" t="n">
-        <v>0.842683788159408</v>
+        <v>0.8426837918799769</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9585130645240725</v>
+        <v>0.9585130352517757</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9705184506837051</v>
+        <v>0.9705185001337925</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9678903630191903</v>
+        <v>0.9678903939086969</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08772512375673419</v>
+        <v>0.08772507665764205</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6602224876122207</v>
+        <v>0.6602224719977893</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1158142279042508</v>
+        <v>0.1158143096202998</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2858194353049348</v>
+        <v>0.2858189558933572</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2008168386817688</v>
+        <v>0.2008166454957453</v>
       </c>
       <c r="M67" t="n">
-        <v>0.07077977165072037</v>
+        <v>0.07077943487107437</v>
       </c>
       <c r="N67" t="n">
-        <v>0.2961842733109478</v>
+        <v>0.2961841938011582</v>
       </c>
       <c r="O67" t="n">
-        <v>1.007270584194872</v>
+        <v>1.007270580291339</v>
       </c>
       <c r="P67" t="n">
-        <v>0.3087934510117638</v>
+        <v>0.3087933681170779</v>
       </c>
       <c r="Q67" t="n">
-        <v>190.8670938935576</v>
+        <v>190.8670949673458</v>
       </c>
       <c r="R67" t="n">
-        <v>304.2225456063002</v>
+        <v>304.2225466800885</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.9958891949713362</v>
+        <v>0.9958892036431592</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8046912705169801</v>
+        <v>0.8046912703326803</v>
       </c>
       <c r="E77" t="n">
         <v>0.9986781940613109</v>
@@ -5277,13 +5277,13 @@
         <v>0.9842574208532341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.994516285711358</v>
+        <v>0.9945162906551263</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01725216931147164</v>
+        <v>0.0172521329176853</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8196689567018276</v>
+        <v>0.8196689574752944</v>
       </c>
       <c r="J77" t="n">
         <v>0.003687509164984623</v>
@@ -5292,25 +5292,25 @@
         <v>0.01789702585548589</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01079228633613399</v>
+        <v>0.01079227660649458</v>
       </c>
       <c r="M77" t="n">
-        <v>0.3965855487566761</v>
+        <v>0.3965851157657072</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1313475135336472</v>
+        <v>0.1313473749935083</v>
       </c>
       <c r="O77" t="n">
-        <v>1.003946372827517</v>
+        <v>1.003946364502567</v>
       </c>
       <c r="P77" t="n">
-        <v>0.1369392491116107</v>
+        <v>0.1369391046735313</v>
       </c>
       <c r="Q77" t="n">
-        <v>106.1196347724496</v>
+        <v>106.1196389914929</v>
       </c>
       <c r="R77" t="n">
-        <v>165.8445501909914</v>
+        <v>165.8445544100347</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9960023288079927</v>
+        <v>0.9960023252577627</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8053154715148015</v>
+        <v>0.805315475287208</v>
       </c>
       <c r="E78" t="n">
         <v>0.9982376676000254</v>
@@ -5340,13 +5340,13 @@
         <v>0.9805503000135926</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9931333459047502</v>
+        <v>0.9931333345695472</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01677737080090181</v>
+        <v>0.01677738570045759</v>
       </c>
       <c r="I78" t="n">
-        <v>0.8170493186446303</v>
+        <v>0.8170493028126473</v>
       </c>
       <c r="J78" t="n">
         <v>0.004916468209471132</v>
@@ -5355,25 +5355,25 @@
         <v>0.02211148378502443</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01351399676686553</v>
+        <v>0.01351401907524103</v>
       </c>
       <c r="M78" t="n">
-        <v>0.3893741165947939</v>
+        <v>0.3893745785010437</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1295274905219035</v>
+        <v>0.1295275480369237</v>
       </c>
       <c r="O78" t="n">
-        <v>1.003837764344327</v>
+        <v>1.003837767752548</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1350417439522901</v>
+        <v>0.1350418039158438</v>
       </c>
       <c r="Q78" t="n">
-        <v>106.1754485533951</v>
+        <v>106.1754467772468</v>
       </c>
       <c r="R78" t="n">
-        <v>165.9003639719369</v>
+        <v>165.9003621957886</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -5391,10 +5391,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.9960622514532295</v>
+        <v>0.9960622549497387</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8058553116756429</v>
+        <v>0.8058553131848015</v>
       </c>
       <c r="E79" t="n">
         <v>0.9977497039353265</v>
@@ -5403,13 +5403,13 @@
         <v>0.9764530348441014</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9916041188185365</v>
+        <v>0.9916041427794315</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01652588827764686</v>
+        <v>0.01652587360354568</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8147837249735543</v>
+        <v>0.8147837186399385</v>
       </c>
       <c r="J79" t="n">
         <v>0.006277765229774553</v>
@@ -5418,25 +5418,25 @@
         <v>0.02676947914852423</v>
       </c>
       <c r="L79" t="n">
-        <v>0.01652360954366063</v>
+        <v>0.01652356238714826</v>
       </c>
       <c r="M79" t="n">
-        <v>0.3831741787105876</v>
+        <v>0.3831740000934241</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1285530562750138</v>
+        <v>0.1285529992008964</v>
       </c>
       <c r="O79" t="n">
-        <v>1.0037802386049</v>
+        <v>1.003780235248251</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1340258260221533</v>
+        <v>0.1340257665182726</v>
       </c>
       <c r="Q79" t="n">
-        <v>106.2056542822499</v>
+        <v>106.2056560581433</v>
       </c>
       <c r="R79" t="n">
-        <v>165.9305697007917</v>
+        <v>165.9305714766851</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -5454,10 +5454,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.9960762705398402</v>
+        <v>0.9960762707570271</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8063203393076797</v>
+        <v>0.8063203319997053</v>
       </c>
       <c r="E80" t="n">
         <v>0.9972236977063672</v>
@@ -5466,13 +5466,13 @@
         <v>0.9720419239718716</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9899572138824827</v>
+        <v>0.9899572204919119</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0164670531701402</v>
+        <v>0.0164670522586534</v>
       </c>
       <c r="I80" t="n">
-        <v>0.8128321034817856</v>
+        <v>0.8128321341517909</v>
       </c>
       <c r="J80" t="n">
         <v>0.007745191523871897</v>
@@ -5481,25 +5481,25 @@
         <v>0.03178427148945588</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01976481955255889</v>
+        <v>0.0197648065447966</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3774334311597217</v>
+        <v>0.3774335447449134</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1283240163419934</v>
+        <v>0.1283240127904883</v>
       </c>
       <c r="O80" t="n">
-        <v>1.003766780281753</v>
+        <v>1.003766780073254</v>
       </c>
       <c r="P80" t="n">
-        <v>0.1337870353850062</v>
+        <v>0.1337870316823062</v>
       </c>
       <c r="Q80" t="n">
-        <v>106.2127873437219</v>
+        <v>106.2127874544262</v>
       </c>
       <c r="R80" t="n">
-        <v>165.9377027622638</v>
+        <v>165.9377028729681</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.9955075045892138</v>
+        <v>0.9955075076557393</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8051055312329622</v>
+        <v>0.805105535852633</v>
       </c>
       <c r="E81" t="n">
         <v>0.9828196755333832</v>
@@ -5529,13 +5529,13 @@
         <v>0.998219380322393</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9972250717048021</v>
+        <v>0.9972250734187217</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01885404219306562</v>
+        <v>0.01885402932351431</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8179303930965525</v>
+        <v>0.8179303737087829</v>
       </c>
       <c r="J81" t="n">
         <v>0.01094229542776815</v>
@@ -5544,25 +5544,25 @@
         <v>0.016022400320556</v>
       </c>
       <c r="L81" t="n">
-        <v>0.01348233765078067</v>
+        <v>0.01348232932348713</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3028808220757659</v>
+        <v>0.3028807314691459</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1373100221872592</v>
+        <v>0.1373099753241341</v>
       </c>
       <c r="O81" t="n">
-        <v>1.003267269389663</v>
+        <v>1.003267267159462</v>
       </c>
       <c r="P81" t="n">
-        <v>0.1431555941027015</v>
+        <v>0.143155545244516</v>
       </c>
       <c r="Q81" t="n">
-        <v>121.9420558962533</v>
+        <v>121.9420572614306</v>
       </c>
       <c r="R81" t="n">
-        <v>191.4179779137407</v>
+        <v>191.4179792789181</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9958127537179327</v>
+        <v>0.9958127513705886</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8055360056619862</v>
+        <v>0.8055360087650121</v>
       </c>
       <c r="E82" t="n">
         <v>0.9810096963097228</v>
@@ -5592,13 +5592,13 @@
         <v>0.9982512651619735</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9971359594604045</v>
+        <v>0.9971359632444796</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01757297689949972</v>
+        <v>0.01757298675080063</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8161237840061197</v>
+        <v>0.8161237709833842</v>
       </c>
       <c r="J82" t="n">
         <v>0.01209508665833535</v>
@@ -5607,25 +5607,25 @@
         <v>0.01573549364961414</v>
       </c>
       <c r="L82" t="n">
-        <v>0.01391530068260665</v>
+        <v>0.01391528229720225</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2898969879079349</v>
+        <v>0.2898965160110379</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1325631053479803</v>
+        <v>0.1325631425049988</v>
       </c>
       <c r="O82" t="n">
-        <v>1.003045270023322</v>
+        <v>1.003045271730481</v>
       </c>
       <c r="P82" t="n">
-        <v>0.1382065911861019</v>
+        <v>0.1382066299249717</v>
       </c>
       <c r="Q82" t="n">
-        <v>122.0827859206307</v>
+        <v>122.0827847994435</v>
       </c>
       <c r="R82" t="n">
-        <v>191.5587079381181</v>
+        <v>191.5587068169309</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.9960575823301712</v>
+        <v>0.9960575797248238</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8058929461209465</v>
+        <v>0.8058929561250502</v>
       </c>
       <c r="E83" t="n">
         <v>0.9788873187039523</v>
@@ -5655,13 +5655,13 @@
         <v>0.9982254879689403</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9969729872549783</v>
+        <v>0.9969729836338169</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01654548358829182</v>
+        <v>0.01654549452237748</v>
       </c>
       <c r="I83" t="n">
-        <v>0.8146257812574712</v>
+        <v>0.814625739272388</v>
       </c>
       <c r="J83" t="n">
         <v>0.01344684708735087</v>
@@ -5670,25 +5670,25 @@
         <v>0.01596744239819438</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01470712161183604</v>
+        <v>0.01470713920570327</v>
       </c>
       <c r="M83" t="n">
-        <v>0.2774060755288719</v>
+        <v>0.2774060967755269</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1286292485723672</v>
+        <v>0.1286292910746906</v>
       </c>
       <c r="O83" t="n">
-        <v>1.002867212850785</v>
+        <v>1.002867214745583</v>
       </c>
       <c r="P83" t="n">
-        <v>0.1341052619833448</v>
+        <v>0.1341053062950801</v>
       </c>
       <c r="Q83" t="n">
-        <v>122.2032842187379</v>
+        <v>122.203282897038</v>
       </c>
       <c r="R83" t="n">
-        <v>191.6792062362253</v>
+        <v>191.6792049145254</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -5706,10 +5706,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.9962494939442972</v>
+        <v>0.9962494969977386</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8061854111739981</v>
+        <v>0.8061854110068301</v>
       </c>
       <c r="E84" t="n">
         <v>0.9765264136163484</v>
@@ -5718,13 +5718,13 @@
         <v>0.9981493127687114</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9967477063012076</v>
+        <v>0.996747703055257</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01574007159802412</v>
+        <v>0.01574005878338339</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8133983679946792</v>
+        <v>0.8133983686962474</v>
       </c>
       <c r="J84" t="n">
         <v>0.0149505277073345</v>
@@ -5733,25 +5733,25 @@
         <v>0.0166528832971769</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01580167742082136</v>
+        <v>0.01580169319167993</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2654042981024609</v>
+        <v>0.2654042053710576</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1254594420441288</v>
+        <v>0.1254593909732683</v>
       </c>
       <c r="O84" t="n">
-        <v>1.002727640767784</v>
+        <v>1.002727638547099</v>
       </c>
       <c r="P84" t="n">
-        <v>0.1308005102287953</v>
+        <v>0.1308004569837425</v>
       </c>
       <c r="Q84" t="n">
-        <v>122.3030909744176</v>
+        <v>122.3030926027007</v>
       </c>
       <c r="R84" t="n">
-        <v>191.779012991905</v>
+        <v>191.7790146201881</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -5769,10 +5769,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.9963951519945176</v>
+        <v>0.9963951517479267</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8064214077297787</v>
+        <v>0.8064214136542126</v>
       </c>
       <c r="E85" t="n">
         <v>0.9739879411924872</v>
@@ -5781,13 +5781,13 @@
         <v>0.998029274549287</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9964701551648382</v>
+        <v>0.9964701623420565</v>
       </c>
       <c r="H85" t="n">
-        <v>0.01512877592078804</v>
+        <v>0.01512877695567726</v>
       </c>
       <c r="I85" t="n">
-        <v>0.8124079409350493</v>
+        <v>0.8124079160714675</v>
       </c>
       <c r="J85" t="n">
         <v>0.016567302480774</v>
@@ -5796,25 +5796,25 @@
         <v>0.01773301311353942</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01715019447705164</v>
+        <v>0.01715015960563482</v>
       </c>
       <c r="M85" t="n">
-        <v>0.2572825378618231</v>
+        <v>0.2572826522172132</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1229990891055216</v>
+        <v>0.1229990933124194</v>
       </c>
       <c r="O85" t="n">
-        <v>1.002621707640351</v>
+        <v>1.00262170781969</v>
       </c>
       <c r="P85" t="n">
-        <v>0.1282354149719588</v>
+        <v>0.128235419357953</v>
       </c>
       <c r="Q85" t="n">
-        <v>122.3823133171332</v>
+        <v>122.3823131803225</v>
       </c>
       <c r="R85" t="n">
-        <v>191.8582353346206</v>
+        <v>191.85823519781</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.9965004695655684</v>
+        <v>0.9965004687558072</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8066080070520731</v>
+        <v>0.8066080073823172</v>
       </c>
       <c r="E86" t="n">
         <v>0.9713215249424187</v>
@@ -5844,13 +5844,13 @@
         <v>0.9978714585064566</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9961492396261079</v>
+        <v>0.9961492473930573</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01468678060488968</v>
+        <v>0.01468678400328404</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8116248234971795</v>
+        <v>0.8116248221112154</v>
       </c>
       <c r="J86" t="n">
         <v>0.01826556577017493</v>
@@ -5859,25 +5859,25 @@
         <v>0.01915307594168472</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01870940292868284</v>
+        <v>0.01870936519198346</v>
       </c>
       <c r="M86" t="n">
-        <v>0.249832120198779</v>
+        <v>0.2498318741672954</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1211890284014592</v>
+        <v>0.1211890424225063</v>
       </c>
       <c r="O86" t="n">
-        <v>1.002545113043223</v>
+        <v>1.00254511363214</v>
       </c>
       <c r="P86" t="n">
-        <v>0.1263482962363823</v>
+        <v>0.1263483108543344</v>
       </c>
       <c r="Q86" t="n">
-        <v>122.4416149367399</v>
+        <v>122.4416144739572</v>
       </c>
       <c r="R86" t="n">
-        <v>191.9175369542273</v>
+        <v>191.9175364914446</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -5895,10 +5895,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.996605412989813</v>
+        <v>0.996605408167259</v>
       </c>
       <c r="D87" t="n">
-        <v>0.808436448169763</v>
+        <v>0.8084364471664789</v>
       </c>
       <c r="E87" t="n">
         <v>0.9952695413143946</v>
@@ -5907,13 +5907,13 @@
         <v>0.9854444590463016</v>
       </c>
       <c r="G87" t="n">
-        <v>0.99450041514509</v>
+        <v>0.9945004028421534</v>
       </c>
       <c r="H87" t="n">
-        <v>0.01424635550309832</v>
+        <v>0.01424637574232603</v>
       </c>
       <c r="I87" t="n">
-        <v>0.8039512472709927</v>
+        <v>0.8039512514815615</v>
       </c>
       <c r="J87" t="n">
         <v>0.005318411367729045</v>
@@ -5922,25 +5922,25 @@
         <v>0.01364947217263195</v>
       </c>
       <c r="L87" t="n">
-        <v>0.009483933450364376</v>
+        <v>0.009483954666553412</v>
       </c>
       <c r="M87" t="n">
-        <v>0.2273798140219529</v>
+        <v>0.2273798822550916</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1193580977692688</v>
+        <v>0.1193581825528775</v>
       </c>
       <c r="O87" t="n">
-        <v>1.002468790552863</v>
+        <v>1.002468794060175</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1244394190966306</v>
+        <v>0.1244395074896531</v>
       </c>
       <c r="Q87" t="n">
-        <v>122.5025083182934</v>
+        <v>122.5025054769754</v>
       </c>
       <c r="R87" t="n">
-        <v>191.9784303357808</v>
+        <v>191.9784274944628</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -5958,10 +5958,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.9967889480007543</v>
+        <v>0.9967889425896885</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8088430110382699</v>
+        <v>0.808843012750917</v>
       </c>
       <c r="E88" t="n">
         <v>0.9946092753495154</v>
@@ -5970,13 +5970,13 @@
         <v>0.9840773996526512</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9939134991545658</v>
+        <v>0.9939134677851756</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01347609832445205</v>
+        <v>0.01347612103353784</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8022449898848285</v>
+        <v>0.8022449826972151</v>
       </c>
       <c r="J88" t="n">
         <v>0.006060742343797775</v>
@@ -5985,25 +5985,25 @@
         <v>0.01493143340040931</v>
       </c>
       <c r="L88" t="n">
-        <v>0.01049605933657859</v>
+        <v>0.0104961134325179</v>
       </c>
       <c r="M88" t="n">
-        <v>0.2337009450309634</v>
+        <v>0.2337019777662747</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1160865983843615</v>
+        <v>0.1160866961952912</v>
       </c>
       <c r="O88" t="n">
-        <v>1.002335310544906</v>
+        <v>1.002335314480227</v>
       </c>
       <c r="P88" t="n">
-        <v>0.1210286452099705</v>
+        <v>0.121028747184914</v>
       </c>
       <c r="Q88" t="n">
-        <v>122.6136753144011</v>
+        <v>122.6136719441279</v>
       </c>
       <c r="R88" t="n">
-        <v>192.0895973318886</v>
+        <v>192.0895939616153</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.9969269464829993</v>
+        <v>0.996926947450239</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8091917340181218</v>
+        <v>0.8091917371576807</v>
       </c>
       <c r="E89" t="n">
         <v>0.9937497494438521</v>
@@ -6033,13 +6033,13 @@
         <v>0.9823872300629125</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9931737333581762</v>
+        <v>0.9931737171700722</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0128969482154553</v>
+        <v>0.01289694415615692</v>
       </c>
       <c r="I89" t="n">
-        <v>0.8007814741380939</v>
+        <v>0.800781460962037</v>
       </c>
       <c r="J89" t="n">
         <v>0.007027099446005972</v>
@@ -6048,25 +6048,25 @@
         <v>0.01651639151742832</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01177177191614749</v>
+        <v>0.01177179983223656</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2399291394297565</v>
+        <v>0.2399297365615416</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1135647313889981</v>
+        <v>0.1135647135168179</v>
       </c>
       <c r="O89" t="n">
-        <v>1.002234948012364</v>
+        <v>1.002234947308917</v>
       </c>
       <c r="P89" t="n">
-        <v>0.1183994171156302</v>
+        <v>0.1183993984825942</v>
       </c>
       <c r="Q89" t="n">
-        <v>122.701529136095</v>
+        <v>122.7015297655926</v>
       </c>
       <c r="R89" t="n">
-        <v>192.1774511535824</v>
+        <v>192.17745178308</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9970247053407749</v>
+        <v>0.997024705928402</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8094885379432667</v>
+        <v>0.8094885346989534</v>
       </c>
       <c r="E90" t="n">
         <v>0.9927188174776828</v>
@@ -6096,13 +6096,13 @@
         <v>0.9804184964214804</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9923023802015519</v>
+        <v>0.9923023914199435</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01248667520219348</v>
+        <v>0.01248667273604833</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7995358515573089</v>
+        <v>0.7995358651729976</v>
       </c>
       <c r="J90" t="n">
         <v>0.008186166811907418</v>
@@ -6111,25 +6111,25 @@
         <v>0.01836257333502848</v>
       </c>
       <c r="L90" t="n">
-        <v>0.01327440449064276</v>
+        <v>0.01327438514473187</v>
       </c>
       <c r="M90" t="n">
-        <v>0.2460434187868744</v>
+        <v>0.2460433815976475</v>
       </c>
       <c r="N90" t="n">
-        <v>0.11174379267858</v>
+        <v>0.1117437816437601</v>
       </c>
       <c r="O90" t="n">
-        <v>1.002163850661255</v>
+        <v>1.002163850233889</v>
       </c>
       <c r="P90" t="n">
-        <v>0.1165009572744468</v>
+        <v>0.1165009457698517</v>
       </c>
       <c r="Q90" t="n">
-        <v>122.7661863741265</v>
+        <v>122.7661867691308</v>
       </c>
       <c r="R90" t="n">
-        <v>192.2421083916139</v>
+        <v>192.2421087866182</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -6147,10 +6147,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.997086992744733</v>
+        <v>0.9970869849910454</v>
       </c>
       <c r="D91" t="n">
-        <v>0.809738865100284</v>
+        <v>0.809738869344839</v>
       </c>
       <c r="E91" t="n">
         <v>0.9915415695325174</v>
@@ -6159,13 +6159,13 @@
         <v>0.9782124333312405</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9913188251219079</v>
+        <v>0.9913187887026683</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0122252682924608</v>
+        <v>0.01222530083302895</v>
       </c>
       <c r="I91" t="n">
-        <v>0.798485282029927</v>
+        <v>0.798485264216438</v>
       </c>
       <c r="J91" t="n">
         <v>0.009509735892693494</v>
@@ -6174,25 +6174,25 @@
         <v>0.02043131106570336</v>
       </c>
       <c r="L91" t="n">
-        <v>0.01497052722830424</v>
+        <v>0.01497059003261665</v>
       </c>
       <c r="M91" t="n">
-        <v>0.2520278211265191</v>
+        <v>0.2520280306221183</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1105679351912696</v>
+        <v>0.1105680823430928</v>
       </c>
       <c r="O91" t="n">
-        <v>1.002118550731103</v>
+        <v>1.002118556370149</v>
       </c>
       <c r="P91" t="n">
-        <v>0.115275041099541</v>
+        <v>0.1152751945159219</v>
       </c>
       <c r="Q91" t="n">
-        <v>122.8085005952969</v>
+        <v>122.8084952718105</v>
       </c>
       <c r="R91" t="n">
-        <v>192.2844226127843</v>
+        <v>192.2844172892979</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -6210,10 +6210,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9971181646692575</v>
+        <v>0.9971181693678209</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8099476859800461</v>
+        <v>0.8099476977226084</v>
       </c>
       <c r="E92" t="n">
         <v>0.9902412621304929</v>
@@ -6222,13 +6222,13 @@
         <v>0.9758073845632105</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9902409774595949</v>
+        <v>0.990240995474832</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01209444639360835</v>
+        <v>0.01209442667474274</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7976089054690573</v>
+        <v>0.7976088561880352</v>
       </c>
       <c r="J92" t="n">
         <v>0.01097165959356279</v>
@@ -6237,25 +6237,25 @@
         <v>0.02268664780224065</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01682925579940371</v>
+        <v>0.0168292247324571</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2578706785559491</v>
+        <v>0.2578706076234555</v>
       </c>
       <c r="N92" t="n">
-        <v>0.109974753437361</v>
+        <v>0.1099746637855408</v>
       </c>
       <c r="O92" t="n">
-        <v>1.00209588024054</v>
+        <v>1.002095876823403</v>
       </c>
       <c r="P92" t="n">
-        <v>0.114656606370313</v>
+        <v>0.1146565129018292</v>
       </c>
       <c r="Q92" t="n">
-        <v>122.8300178149518</v>
+        <v>122.8300210757677</v>
       </c>
       <c r="R92" t="n">
-        <v>192.3059398324392</v>
+        <v>192.3059430932551</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.9971221847446415</v>
+        <v>0.9971221868558164</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8101195676578362</v>
+        <v>0.8101195594241797</v>
       </c>
       <c r="E93" t="n">
         <v>0.9888385366640868</v>
@@ -6285,13 +6285,13 @@
         <v>0.9732372924748729</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9890849722460696</v>
+        <v>0.9890849953308551</v>
       </c>
       <c r="H93" t="n">
-        <v>0.01207757499720624</v>
+        <v>0.01207756613705681</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7968875548367362</v>
+        <v>0.7968875893916316</v>
       </c>
       <c r="J93" t="n">
         <v>0.01254873098603439</v>
@@ -6300,25 +6300,25 @@
         <v>0.02509675406709594</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01882276563743464</v>
+        <v>0.01882272582814431</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2635587710862931</v>
+        <v>0.2635585647943889</v>
       </c>
       <c r="N93" t="n">
-        <v>0.109898020897586</v>
+        <v>0.1098979805868006</v>
       </c>
       <c r="O93" t="n">
-        <v>1.002092956549352</v>
+        <v>1.002092955013952</v>
       </c>
       <c r="P93" t="n">
-        <v>0.1145766071674615</v>
+        <v>0.1145765651405626</v>
       </c>
       <c r="Q93" t="n">
-        <v>122.8328097037838</v>
+        <v>122.832811170991</v>
       </c>
       <c r="R93" t="n">
-        <v>192.3087317212712</v>
+        <v>192.3087331884784</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -6336,10 +6336,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.9971026310878232</v>
+        <v>0.9971026324497589</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8102586110834382</v>
+        <v>0.8102586144731014</v>
       </c>
       <c r="E94" t="n">
         <v>0.9873526435087699</v>
@@ -6348,13 +6348,13 @@
         <v>0.9705333414610592</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9878654634192051</v>
+        <v>0.9878654456794802</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01215963751190521</v>
+        <v>0.01215963179615223</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7963040193240067</v>
+        <v>0.7963040050983152</v>
       </c>
       <c r="J94" t="n">
         <v>0.01421930704930608</v>
@@ -6363,25 +6363,25 @@
         <v>0.02763238666478598</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0209257862946736</v>
+        <v>0.02092581688650463</v>
       </c>
       <c r="M94" t="n">
-        <v>0.2690892204628884</v>
+        <v>0.2690888386906944</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1102707464013244</v>
+        <v>0.1102707204844161</v>
       </c>
       <c r="O94" t="n">
-        <v>1.002107177390674</v>
+        <v>1.002107176400175</v>
       </c>
       <c r="P94" t="n">
-        <v>0.1149652003675423</v>
+        <v>0.1149651733472975</v>
       </c>
       <c r="Q94" t="n">
-        <v>122.8192664255293</v>
+        <v>122.8192673656485</v>
       </c>
       <c r="R94" t="n">
-        <v>192.2951884430167</v>
+        <v>192.2951893831359</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -6399,52 +6399,52 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.9956085908484588</v>
+        <v>0.9956085983735349</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8438718296491333</v>
+        <v>0.8438718228473212</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9964641532284624</v>
+        <v>0.9964642407442272</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9845542742499548</v>
+        <v>0.9845542948067862</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9874294048810657</v>
+        <v>0.9874294400720722</v>
       </c>
       <c r="H95" t="n">
-        <v>0.01842980478764323</v>
+        <v>0.0184297732065085</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6552365316286901</v>
+        <v>0.6552365601744408</v>
       </c>
       <c r="J95" t="n">
-        <v>0.002480267483518083</v>
+        <v>0.002480206094402555</v>
       </c>
       <c r="K95" t="n">
-        <v>0.03452187739315</v>
+        <v>0.03452183144772605</v>
       </c>
       <c r="L95" t="n">
-        <v>0.01850107243833404</v>
+        <v>0.01850102064513284</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3098402451066902</v>
+        <v>0.3098400950847218</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1357564171140474</v>
+        <v>0.1357563007985578</v>
       </c>
       <c r="O95" t="n">
-        <v>1.000688848494359</v>
+        <v>1.000688847313955</v>
       </c>
       <c r="P95" t="n">
-        <v>0.1415358488451172</v>
+        <v>0.1415357275778363</v>
       </c>
       <c r="Q95" t="n">
-        <v>361.987572198908</v>
+        <v>361.9875756260915</v>
       </c>
       <c r="R95" t="n">
-        <v>577.7285932005794</v>
+        <v>577.728596627763</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.9970627558043401</v>
+        <v>0.9970627526708352</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8103686186903765</v>
+        <v>0.810368619202514</v>
       </c>
       <c r="E96" t="n">
         <v>0.9858003725003766</v>
@@ -6474,13 +6474,13 @@
         <v>0.9677247469182649</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9865957745173133</v>
+        <v>0.9865957745286923</v>
       </c>
       <c r="H96" t="n">
-        <v>0.01232698554646213</v>
+        <v>0.01232699869711174</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7958423409307929</v>
+        <v>0.7958423387814614</v>
       </c>
       <c r="J96" t="n">
         <v>0.01596451112474953</v>
@@ -6489,25 +6489,25 @@
         <v>0.03026614882986277</v>
       </c>
       <c r="L96" t="n">
-        <v>0.02311534157309762</v>
+        <v>0.02311534155347457</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2744485360681143</v>
+        <v>0.2744479046374718</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1110269586472679</v>
+        <v>0.111027017870029</v>
       </c>
       <c r="O96" t="n">
-        <v>1.002136177596844</v>
+        <v>1.002136179875756</v>
       </c>
       <c r="P96" t="n">
-        <v>0.1157536061343706</v>
+        <v>0.1157536678783673</v>
       </c>
       <c r="Q96" t="n">
-        <v>122.791928945848</v>
+        <v>122.7919268122132</v>
       </c>
       <c r="R96" t="n">
-        <v>192.2678509633355</v>
+        <v>192.2678488297007</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -6525,52 +6525,52 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.9959712532577112</v>
+        <v>0.9959712491245543</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8144822750264802</v>
+        <v>0.8144822696782208</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9968484912432142</v>
+        <v>0.996848491368667</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9969816141505782</v>
+        <v>0.9969815966390894</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9968880512272921</v>
+        <v>0.9968880494905139</v>
       </c>
       <c r="H97" t="n">
-        <v>0.01690778823767258</v>
+        <v>0.0169078055836481</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7785782052919549</v>
+        <v>0.7785782277374556</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04487758636061782</v>
+        <v>0.04487758457416529</v>
       </c>
       <c r="K97" t="n">
-        <v>0.004923288248284846</v>
+        <v>0.004923316811268856</v>
       </c>
       <c r="L97" t="n">
-        <v>0.02490043730445133</v>
+        <v>0.0249004512013821</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1623070967353369</v>
+        <v>0.1623073237542724</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1300299513099677</v>
+        <v>0.1300300180098738</v>
       </c>
       <c r="O97" t="n">
-        <v>1.001487537258691</v>
+        <v>1.00148753878478</v>
       </c>
       <c r="P97" t="n">
-        <v>0.1355655955363394</v>
+        <v>0.1355656650757986</v>
       </c>
       <c r="Q97" t="n">
-        <v>186.1599618414851</v>
+        <v>186.1599597896536</v>
       </c>
       <c r="R97" t="n">
-        <v>294.6399102547549</v>
+        <v>294.6399082029234</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -6588,52 +6588,52 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.9959678971813701</v>
+        <v>0.9959679017495882</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8146528457578562</v>
+        <v>0.8146528435467939</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9964421110767484</v>
+        <v>0.9964421156884502</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9964937885779492</v>
+        <v>0.996493787801469</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9964767215529517</v>
+        <v>0.9964767253175801</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0169218729721357</v>
+        <v>0.01692185380030192</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7778623564212928</v>
+        <v>0.7778623657006485</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05066445304043982</v>
+        <v>0.05066438736965743</v>
       </c>
       <c r="K98" t="n">
-        <v>0.005718980392613237</v>
+        <v>0.005718981659129756</v>
       </c>
       <c r="L98" t="n">
-        <v>0.02819171537984796</v>
+        <v>0.02819168525695727</v>
       </c>
       <c r="M98" t="n">
-        <v>0.1570570065974668</v>
+        <v>0.1570572289433694</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1300840996130415</v>
+        <v>0.13008402592287</v>
       </c>
       <c r="O98" t="n">
-        <v>1.00148877642534</v>
+        <v>1.001488774738614</v>
       </c>
       <c r="P98" t="n">
-        <v>0.1356220490447774</v>
+        <v>0.1356219722174628</v>
       </c>
       <c r="Q98" t="n">
-        <v>186.1582964703554</v>
+        <v>186.15829873628</v>
       </c>
       <c r="R98" t="n">
-        <v>294.6382448836252</v>
+        <v>294.6382471495498</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -6651,52 +6651,52 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.9959377216677717</v>
+        <v>0.9959377238752407</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8142673246428423</v>
+        <v>0.8142673321519902</v>
       </c>
       <c r="E99" t="n">
-        <v>0.997248009029576</v>
+        <v>0.9972480095216992</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9974592808850673</v>
+        <v>0.9974592869040624</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9972922392971812</v>
+        <v>0.9972922404138092</v>
       </c>
       <c r="H99" t="n">
-        <v>0.01704851314748547</v>
+        <v>0.01704850388321036</v>
       </c>
       <c r="I99" t="n">
-        <v>0.779480306069352</v>
+        <v>0.7794802745550649</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03918844019484929</v>
+        <v>0.03918843318699807</v>
       </c>
       <c r="K99" t="n">
-        <v>0.004144166181781182</v>
+        <v>0.004144156364200111</v>
       </c>
       <c r="L99" t="n">
-        <v>0.02166630318831524</v>
+        <v>0.02166629425355236</v>
       </c>
       <c r="M99" t="n">
-        <v>0.1678988986506269</v>
+        <v>0.1678987934475267</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1305699549953414</v>
+        <v>0.1305699195190468</v>
       </c>
       <c r="O99" t="n">
-        <v>1.001499918153438</v>
+        <v>1.001499917338373</v>
       </c>
       <c r="P99" t="n">
-        <v>0.1361285882965611</v>
+        <v>0.1361285513099673</v>
       </c>
       <c r="Q99" t="n">
-        <v>186.1433845689626</v>
+        <v>186.1433856557761</v>
       </c>
       <c r="R99" t="n">
-        <v>294.6233329822324</v>
+        <v>294.623334069046</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -6714,52 +6714,52 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.9959337346010855</v>
+        <v>0.9959337323870571</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8147852988944646</v>
+        <v>0.8147852920915567</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9960325917043189</v>
+        <v>0.9960325843906018</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9960005673423479</v>
+        <v>0.9960005778048707</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9960620484104359</v>
+        <v>0.9960620429688752</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01706524601344462</v>
+        <v>0.01706525530524789</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7773064789416579</v>
+        <v>0.7773065074920072</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05649602211445248</v>
+        <v>0.05649612626201971</v>
       </c>
       <c r="K100" t="n">
-        <v>0.00652347340118785</v>
+        <v>0.006523456335770122</v>
       </c>
       <c r="L100" t="n">
-        <v>0.03150974640838245</v>
+        <v>0.03150978994934352</v>
       </c>
       <c r="M100" t="n">
-        <v>0.1521271151234549</v>
+        <v>0.1521276060667378</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1306340155298176</v>
+        <v>0.1306340510940693</v>
       </c>
       <c r="O100" t="n">
-        <v>1.001501390301138</v>
+        <v>1.001501391118625</v>
       </c>
       <c r="P100" t="n">
-        <v>0.1361953760206136</v>
+        <v>0.1361954130989091</v>
       </c>
       <c r="Q100" t="n">
-        <v>186.1414225609385</v>
+        <v>186.141421471965</v>
       </c>
       <c r="R100" t="n">
-        <v>294.6213709742084</v>
+        <v>294.6213698852348</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -6777,52 +6777,52 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.9958741201129941</v>
+        <v>0.9958741243677554</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8148850555914591</v>
+        <v>0.8148850616002122</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9956231339744159</v>
+        <v>0.9956231359519797</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9955061758503057</v>
+        <v>0.9955061944826629</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9956473106718872</v>
+        <v>0.9956473144479784</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01731543526708154</v>
+        <v>0.01731541741075865</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7768878214245778</v>
+        <v>0.776887796207126</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06232671339689902</v>
+        <v>0.06232668523632613</v>
       </c>
       <c r="K101" t="n">
-        <v>0.007329875214690276</v>
+        <v>0.007329844823457929</v>
       </c>
       <c r="L101" t="n">
-        <v>0.03482829430579465</v>
+        <v>0.03482826409118303</v>
       </c>
       <c r="M101" t="n">
-        <v>0.1474983211122383</v>
+        <v>0.147498721762586</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1315881273788845</v>
+        <v>0.1315880595295738</v>
       </c>
       <c r="O101" t="n">
-        <v>1.001523401804433</v>
+        <v>1.001523400233444</v>
       </c>
       <c r="P101" t="n">
-        <v>0.1371901063863791</v>
+        <v>0.1371900356485827</v>
       </c>
       <c r="Q101" t="n">
-        <v>186.1123139265858</v>
+        <v>186.1123159890614</v>
       </c>
       <c r="R101" t="n">
-        <v>294.5922623398556</v>
+        <v>294.5922644023313</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
